--- a/storage/excel_template/temp_kerusakan.xlsx
+++ b/storage/excel_template/temp_kerusakan.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t xml:space="preserve">FORMULIR PENILAIAN KERUSAKAN BANGUNAN</t>
   </si>
@@ -165,6 +165,31 @@
   </si>
   <si>
     <t xml:space="preserve">Catatan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Swis721 LtCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Tingkat Kerusakan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Swis721 LtCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ringan	: ≤ 30%
+Sedang	: &gt; 30% - 45%
+Berat	: &gt; 45%</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">TIM SURVEI :</t>
@@ -354,13 +379,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Swis721 LtCn BT"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <u val="single"/>
       <sz val="11"/>
@@ -373,6 +391,13 @@
       <color rgb="FF000000"/>
       <name val="Swis721 LtCn BT"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Swis721 LtCn BT"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -600,7 +625,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -925,7 +950,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,16 +966,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1104,200 +1133,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>280440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14238720" y="4690800"/>
-          <a:ext cx="3161880" cy="977760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19080">
-          <a:solidFill>
-            <a:srgbClr val="ffffff"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>Tingkat Kerusakan</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>Ringan</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>: ≤ 30%</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>Sedang</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>: &gt; 30% - 45%</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>Berat</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Swis721 LtCn BT"/>
-              <a:ea typeface="Arial"/>
-            </a:rPr>
-            <a:t>: &gt; 45%</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1305,13 +1140,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2083680</xdr:colOff>
+      <xdr:colOff>2082600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="image1.jpg" descr=""/>
+        <xdr:cNvPr id="0" name="image1.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1321,7 +1156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7257240" y="2352600"/>
-          <a:ext cx="1855080" cy="1550520"/>
+          <a:ext cx="1854000" cy="1549440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1342,13 +1177,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2112120</xdr:colOff>
+      <xdr:colOff>2111040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1598040</xdr:rowOff>
+      <xdr:rowOff>1596960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpg" descr=""/>
+        <xdr:cNvPr id="1" name="image1.jpg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1358,7 +1193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7285680" y="695160"/>
-          <a:ext cx="1855080" cy="1550520"/>
+          <a:ext cx="1854000" cy="1549440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1379,13 +1214,13 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AC1048576"/>
+  <dimension ref="A1:AC1026"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB17" activeCellId="0" sqref="AB17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.27734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.56"/>
@@ -1395,7 +1230,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="1" width="6.67"/>
@@ -2156,34 +1991,16 @@
       <c r="J21" s="63"/>
       <c r="K21" s="64"/>
       <c r="L21" s="65"/>
-      <c r="M21" s="66" t="n">
-        <f aca="false">IF($J21 &gt; 0, (L21/$J21)*$L$19, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="M21" s="66"/>
       <c r="N21" s="67"/>
-      <c r="O21" s="66" t="n">
-        <f aca="false">IF($J21 &gt; 0, (N21/$J21)*$N$19, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="O21" s="66"/>
       <c r="P21" s="67"/>
-      <c r="Q21" s="66" t="n">
-        <f aca="false">IF($J21 &gt; 0, (P21/$J21)*$P$19, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="Q21" s="66"/>
       <c r="R21" s="67"/>
-      <c r="S21" s="66" t="n">
-        <f aca="false">IF($J21 &gt; 0, (R21/$J21)*$R$19, 0)</f>
-        <v>0</v>
-      </c>
+      <c r="S21" s="66"/>
       <c r="T21" s="67"/>
-      <c r="U21" s="68" t="n">
-        <f aca="false">IF($J21 &gt; 0, (T21/$J21)*$T$19, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="69" t="n">
-        <f aca="false">(M21+O21+Q21+S21+U21)*IF(K21, K21/100, 1)</f>
-        <v>0</v>
-      </c>
+      <c r="U21" s="68"/>
+      <c r="V21" s="69"/>
       <c r="W21" s="70"/>
       <c r="X21" s="71"/>
       <c r="Y21" s="32"/>
@@ -2194,1282 +2011,1272 @@
     </row>
     <row r="22" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="32"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="75" t="n">
-        <f aca="false">(SUM(V21:V21))</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="71"/>
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="32"/>
       <c r="AB22" s="32"/>
       <c r="AC22" s="32"/>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-    </row>
-    <row r="27" s="81" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="80" t="s">
-        <v>37</v>
+    <row r="23" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+    </row>
+    <row r="24" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="32"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+    </row>
+    <row r="25" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="32"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+    </row>
+    <row r="27" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="32"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="68"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+    </row>
+    <row r="28" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="32"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+    </row>
+    <row r="29" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="32"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+    </row>
+    <row r="30" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="32"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="70"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+    </row>
+    <row r="31" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="32"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+    </row>
+    <row r="32" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="32"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+    </row>
+    <row r="33" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+    </row>
+    <row r="34" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="32"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+    </row>
+    <row r="35" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+    </row>
+    <row r="36" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="32"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+    </row>
+    <row r="37" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="32"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+    </row>
+    <row r="38" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="32"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="32"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="32"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="32"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="32"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="67"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+    </row>
+    <row r="43" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+    </row>
+    <row r="44" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="32"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+    </row>
+    <row r="45" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="32"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="69"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+    </row>
+    <row r="46" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="32"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="65"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="69"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+    </row>
+    <row r="47" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="32"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="66"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="66"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="66"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="69"/>
+      <c r="W47" s="70"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+    </row>
+    <row r="48" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="32"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="65"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="68"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+    </row>
+    <row r="49" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="32"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="69"/>
+      <c r="W49" s="70"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+    </row>
+    <row r="50" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="32"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="70"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+    </row>
+    <row r="51" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="32"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="69"/>
+      <c r="W51" s="70"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+    </row>
+    <row r="52" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="32"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="66"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="70"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+    </row>
+    <row r="53" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="32"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="65"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="67"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="69"/>
+      <c r="W53" s="70"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+    </row>
+    <row r="54" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="32"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="65"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="66"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="66"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="66"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="69"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+    </row>
+    <row r="55" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="32"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="69"/>
+      <c r="W55" s="70"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+    </row>
+    <row r="56" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="32"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="67"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="66"/>
+      <c r="R56" s="67"/>
+      <c r="S56" s="66"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="69"/>
+      <c r="W56" s="70"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+    </row>
+    <row r="57" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="32"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="65"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="67"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="67"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="67"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="69"/>
+      <c r="W57" s="70"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+    </row>
+    <row r="58" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="32"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="65"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="69"/>
+      <c r="W58" s="70"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+    </row>
+    <row r="59" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="32"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="64"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="69"/>
+      <c r="W59" s="70"/>
+      <c r="X59" s="71"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+    </row>
+    <row r="60" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="32"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="67"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="69"/>
+      <c r="W60" s="70"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+    </row>
+    <row r="61" s="40" customFormat="true" ht="25.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="32"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="75" t="n">
+        <f aca="false">(SUM(V21:V21))</f>
+        <v>0</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="83"/>
-      <c r="T32" s="83"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="83"/>
-      <c r="T33" s="83"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
-      <c r="S35" s="83"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="83"/>
-      <c r="T36" s="83"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="88"/>
-      <c r="W36" s="88"/>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
-      <c r="S37" s="83"/>
-      <c r="T37" s="83"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="83"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="86"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
-      <c r="S39" s="83"/>
-      <c r="T39" s="83"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
-      <c r="S40" s="83"/>
-      <c r="T40" s="83"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="83"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
-      <c r="S43" s="83"/>
-      <c r="T43" s="83"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="87"/>
-      <c r="W44" s="87"/>
-      <c r="X44" s="87"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="90"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
+      <c r="W61" s="76"/>
+      <c r="X61" s="76"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="77"/>
       <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
+      <c r="X62" s="78"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
@@ -3478,26 +3285,26 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
       <c r="V63" s="5"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
@@ -3509,26 +3316,26 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
       <c r="V64" s="5"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
@@ -3538,618 +3345,630 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="52"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" s="82" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
+      <c r="B66" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="80"/>
+      <c r="S66" s="80"/>
+      <c r="T66" s="80"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" s="81"/>
+      <c r="X66" s="81"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="84"/>
+      <c r="L67" s="84"/>
+      <c r="M67" s="84"/>
+      <c r="N67" s="84"/>
+      <c r="O67" s="84"/>
+      <c r="P67" s="84"/>
+      <c r="Q67" s="84"/>
+      <c r="R67" s="84"/>
+      <c r="S67" s="84"/>
+      <c r="T67" s="84"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="81"/>
+      <c r="X67" s="81"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="84"/>
+      <c r="L68" s="84"/>
+      <c r="M68" s="84"/>
+      <c r="N68" s="84"/>
+      <c r="O68" s="84"/>
+      <c r="P68" s="84"/>
+      <c r="Q68" s="84"/>
+      <c r="R68" s="84"/>
+      <c r="S68" s="84"/>
+      <c r="T68" s="84"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="81"/>
+      <c r="X68" s="81"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="84"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="84"/>
+      <c r="N69" s="84"/>
+      <c r="O69" s="84"/>
+      <c r="P69" s="84"/>
+      <c r="Q69" s="84"/>
+      <c r="R69" s="84"/>
+      <c r="S69" s="84"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="85"/>
+      <c r="W69" s="86"/>
+      <c r="X69" s="7"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="84"/>
+      <c r="L70" s="84"/>
+      <c r="M70" s="84"/>
+      <c r="N70" s="84"/>
+      <c r="O70" s="84"/>
+      <c r="P70" s="84"/>
+      <c r="Q70" s="84"/>
+      <c r="R70" s="84"/>
+      <c r="S70" s="84"/>
+      <c r="T70" s="84"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="84"/>
+      <c r="L71" s="84"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+      <c r="Q71" s="84"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="W71" s="87"/>
+      <c r="X71" s="87"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84"/>
+      <c r="O72" s="84"/>
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84"/>
+      <c r="T72" s="84"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="85"/>
+      <c r="W72" s="86"/>
+      <c r="X72" s="7"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="84"/>
+      <c r="L73" s="84"/>
+      <c r="M73" s="84"/>
+      <c r="N73" s="84"/>
+      <c r="O73" s="84"/>
+      <c r="P73" s="84"/>
+      <c r="Q73" s="84"/>
+      <c r="R73" s="84"/>
+      <c r="S73" s="84"/>
+      <c r="T73" s="84"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="85"/>
+      <c r="W73" s="86"/>
+      <c r="X73" s="7"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="84"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="84"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="84"/>
+      <c r="Q74" s="84"/>
+      <c r="R74" s="84"/>
+      <c r="S74" s="84"/>
+      <c r="T74" s="84"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="W74" s="88"/>
+      <c r="X74" s="88"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="84"/>
+      <c r="M75" s="84"/>
+      <c r="N75" s="84"/>
+      <c r="O75" s="84"/>
+      <c r="P75" s="84"/>
+      <c r="Q75" s="84"/>
+      <c r="R75" s="84"/>
+      <c r="S75" s="84"/>
+      <c r="T75" s="84"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="89"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="89"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="84"/>
+      <c r="L76" s="84"/>
+      <c r="M76" s="84"/>
+      <c r="N76" s="84"/>
+      <c r="O76" s="84"/>
+      <c r="P76" s="84"/>
+      <c r="Q76" s="84"/>
+      <c r="R76" s="84"/>
+      <c r="S76" s="84"/>
+      <c r="T76" s="84"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="85"/>
+      <c r="W76" s="86"/>
+      <c r="X76" s="7"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="84"/>
+      <c r="T77" s="84"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="85"/>
+      <c r="W77" s="86"/>
+      <c r="X77" s="7"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+      <c r="T78" s="84"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="88"/>
+      <c r="W78" s="88"/>
+      <c r="X78" s="88"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
+      <c r="Q79" s="84"/>
+      <c r="R79" s="84"/>
+      <c r="S79" s="84"/>
+      <c r="T79" s="84"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
+      <c r="Q80" s="84"/>
+      <c r="R80" s="84"/>
+      <c r="S80" s="84"/>
+      <c r="T80" s="84"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="87"/>
+      <c r="W80" s="87"/>
+      <c r="X80" s="87"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
+      <c r="Q81" s="84"/>
+      <c r="R81" s="84"/>
+      <c r="S81" s="84"/>
+      <c r="T81" s="84"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="85"/>
+      <c r="W81" s="86"/>
+      <c r="X81" s="7"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
+      <c r="Q82" s="84"/>
+      <c r="R82" s="84"/>
+      <c r="S82" s="84"/>
+      <c r="T82" s="84"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="85"/>
+      <c r="W82" s="86"/>
+      <c r="X82" s="7"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="90"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="88"/>
+      <c r="X83" s="88"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="90"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="5"/>
+      <c r="V84" s="91"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="2"/>
@@ -4158,27 +3977,27 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="90"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
       <c r="U85" s="4"/>
       <c r="V85" s="5"/>
       <c r="W85" s="4"/>
@@ -4189,27 +4008,27 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="90"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
       <c r="U86" s="4"/>
       <c r="V86" s="5"/>
       <c r="W86" s="4"/>
@@ -4220,7 +4039,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4233,7 +4052,7 @@
       <c r="J87" s="3"/>
       <c r="K87" s="5"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
+      <c r="M87" s="92"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -32151,22 +31970,1215 @@
       <c r="AB987" s="2"/>
       <c r="AC987" s="2"/>
     </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A988" s="2"/>
+      <c r="B988" s="3"/>
+      <c r="C988" s="3"/>
+      <c r="D988" s="4"/>
+      <c r="E988" s="4"/>
+      <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
+      <c r="H988" s="4"/>
+      <c r="I988" s="3"/>
+      <c r="J988" s="3"/>
+      <c r="K988" s="5"/>
+      <c r="L988" s="4"/>
+      <c r="M988" s="4"/>
+      <c r="N988" s="4"/>
+      <c r="O988" s="4"/>
+      <c r="P988" s="4"/>
+      <c r="Q988" s="4"/>
+      <c r="R988" s="4"/>
+      <c r="S988" s="4"/>
+      <c r="T988" s="4"/>
+      <c r="U988" s="4"/>
+      <c r="V988" s="5"/>
+      <c r="W988" s="4"/>
+      <c r="X988" s="4"/>
+      <c r="Y988" s="2"/>
+      <c r="Z988" s="2"/>
+      <c r="AA988" s="2"/>
+      <c r="AB988" s="2"/>
+      <c r="AC988" s="2"/>
+    </row>
+    <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A989" s="2"/>
+      <c r="B989" s="3"/>
+      <c r="C989" s="3"/>
+      <c r="D989" s="4"/>
+      <c r="E989" s="4"/>
+      <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
+      <c r="H989" s="4"/>
+      <c r="I989" s="3"/>
+      <c r="J989" s="3"/>
+      <c r="K989" s="5"/>
+      <c r="L989" s="4"/>
+      <c r="M989" s="4"/>
+      <c r="N989" s="4"/>
+      <c r="O989" s="4"/>
+      <c r="P989" s="4"/>
+      <c r="Q989" s="4"/>
+      <c r="R989" s="4"/>
+      <c r="S989" s="4"/>
+      <c r="T989" s="4"/>
+      <c r="U989" s="4"/>
+      <c r="V989" s="5"/>
+      <c r="W989" s="4"/>
+      <c r="X989" s="4"/>
+      <c r="Y989" s="2"/>
+      <c r="Z989" s="2"/>
+      <c r="AA989" s="2"/>
+      <c r="AB989" s="2"/>
+      <c r="AC989" s="2"/>
+    </row>
+    <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A990" s="2"/>
+      <c r="B990" s="3"/>
+      <c r="C990" s="3"/>
+      <c r="D990" s="4"/>
+      <c r="E990" s="4"/>
+      <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
+      <c r="H990" s="4"/>
+      <c r="I990" s="3"/>
+      <c r="J990" s="3"/>
+      <c r="K990" s="5"/>
+      <c r="L990" s="4"/>
+      <c r="M990" s="4"/>
+      <c r="N990" s="4"/>
+      <c r="O990" s="4"/>
+      <c r="P990" s="4"/>
+      <c r="Q990" s="4"/>
+      <c r="R990" s="4"/>
+      <c r="S990" s="4"/>
+      <c r="T990" s="4"/>
+      <c r="U990" s="4"/>
+      <c r="V990" s="5"/>
+      <c r="W990" s="4"/>
+      <c r="X990" s="4"/>
+      <c r="Y990" s="2"/>
+      <c r="Z990" s="2"/>
+      <c r="AA990" s="2"/>
+      <c r="AB990" s="2"/>
+      <c r="AC990" s="2"/>
+    </row>
+    <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A991" s="2"/>
+      <c r="B991" s="3"/>
+      <c r="C991" s="3"/>
+      <c r="D991" s="4"/>
+      <c r="E991" s="4"/>
+      <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
+      <c r="H991" s="4"/>
+      <c r="I991" s="3"/>
+      <c r="J991" s="3"/>
+      <c r="K991" s="5"/>
+      <c r="L991" s="4"/>
+      <c r="M991" s="4"/>
+      <c r="N991" s="4"/>
+      <c r="O991" s="4"/>
+      <c r="P991" s="4"/>
+      <c r="Q991" s="4"/>
+      <c r="R991" s="4"/>
+      <c r="S991" s="4"/>
+      <c r="T991" s="4"/>
+      <c r="U991" s="4"/>
+      <c r="V991" s="5"/>
+      <c r="W991" s="4"/>
+      <c r="X991" s="4"/>
+      <c r="Y991" s="2"/>
+      <c r="Z991" s="2"/>
+      <c r="AA991" s="2"/>
+      <c r="AB991" s="2"/>
+      <c r="AC991" s="2"/>
+    </row>
+    <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A992" s="2"/>
+      <c r="B992" s="3"/>
+      <c r="C992" s="3"/>
+      <c r="D992" s="4"/>
+      <c r="E992" s="4"/>
+      <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
+      <c r="H992" s="4"/>
+      <c r="I992" s="3"/>
+      <c r="J992" s="3"/>
+      <c r="K992" s="5"/>
+      <c r="L992" s="4"/>
+      <c r="M992" s="4"/>
+      <c r="N992" s="4"/>
+      <c r="O992" s="4"/>
+      <c r="P992" s="4"/>
+      <c r="Q992" s="4"/>
+      <c r="R992" s="4"/>
+      <c r="S992" s="4"/>
+      <c r="T992" s="4"/>
+      <c r="U992" s="4"/>
+      <c r="V992" s="5"/>
+      <c r="W992" s="4"/>
+      <c r="X992" s="4"/>
+      <c r="Y992" s="2"/>
+      <c r="Z992" s="2"/>
+      <c r="AA992" s="2"/>
+      <c r="AB992" s="2"/>
+      <c r="AC992" s="2"/>
+    </row>
+    <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A993" s="2"/>
+      <c r="B993" s="3"/>
+      <c r="C993" s="3"/>
+      <c r="D993" s="4"/>
+      <c r="E993" s="4"/>
+      <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
+      <c r="H993" s="4"/>
+      <c r="I993" s="3"/>
+      <c r="J993" s="3"/>
+      <c r="K993" s="5"/>
+      <c r="L993" s="4"/>
+      <c r="M993" s="4"/>
+      <c r="N993" s="4"/>
+      <c r="O993" s="4"/>
+      <c r="P993" s="4"/>
+      <c r="Q993" s="4"/>
+      <c r="R993" s="4"/>
+      <c r="S993" s="4"/>
+      <c r="T993" s="4"/>
+      <c r="U993" s="4"/>
+      <c r="V993" s="5"/>
+      <c r="W993" s="4"/>
+      <c r="X993" s="4"/>
+      <c r="Y993" s="2"/>
+      <c r="Z993" s="2"/>
+      <c r="AA993" s="2"/>
+      <c r="AB993" s="2"/>
+      <c r="AC993" s="2"/>
+    </row>
+    <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A994" s="2"/>
+      <c r="B994" s="3"/>
+      <c r="C994" s="3"/>
+      <c r="D994" s="4"/>
+      <c r="E994" s="4"/>
+      <c r="F994" s="4"/>
+      <c r="G994" s="4"/>
+      <c r="H994" s="4"/>
+      <c r="I994" s="3"/>
+      <c r="J994" s="3"/>
+      <c r="K994" s="5"/>
+      <c r="L994" s="4"/>
+      <c r="M994" s="4"/>
+      <c r="N994" s="4"/>
+      <c r="O994" s="4"/>
+      <c r="P994" s="4"/>
+      <c r="Q994" s="4"/>
+      <c r="R994" s="4"/>
+      <c r="S994" s="4"/>
+      <c r="T994" s="4"/>
+      <c r="U994" s="4"/>
+      <c r="V994" s="5"/>
+      <c r="W994" s="4"/>
+      <c r="X994" s="4"/>
+      <c r="Y994" s="2"/>
+      <c r="Z994" s="2"/>
+      <c r="AA994" s="2"/>
+      <c r="AB994" s="2"/>
+      <c r="AC994" s="2"/>
+    </row>
+    <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A995" s="2"/>
+      <c r="B995" s="3"/>
+      <c r="C995" s="3"/>
+      <c r="D995" s="4"/>
+      <c r="E995" s="4"/>
+      <c r="F995" s="4"/>
+      <c r="G995" s="4"/>
+      <c r="H995" s="4"/>
+      <c r="I995" s="3"/>
+      <c r="J995" s="3"/>
+      <c r="K995" s="5"/>
+      <c r="L995" s="4"/>
+      <c r="M995" s="4"/>
+      <c r="N995" s="4"/>
+      <c r="O995" s="4"/>
+      <c r="P995" s="4"/>
+      <c r="Q995" s="4"/>
+      <c r="R995" s="4"/>
+      <c r="S995" s="4"/>
+      <c r="T995" s="4"/>
+      <c r="U995" s="4"/>
+      <c r="V995" s="5"/>
+      <c r="W995" s="4"/>
+      <c r="X995" s="4"/>
+      <c r="Y995" s="2"/>
+      <c r="Z995" s="2"/>
+      <c r="AA995" s="2"/>
+      <c r="AB995" s="2"/>
+      <c r="AC995" s="2"/>
+    </row>
+    <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A996" s="2"/>
+      <c r="B996" s="3"/>
+      <c r="C996" s="3"/>
+      <c r="D996" s="4"/>
+      <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
+      <c r="I996" s="3"/>
+      <c r="J996" s="3"/>
+      <c r="K996" s="5"/>
+      <c r="L996" s="4"/>
+      <c r="M996" s="4"/>
+      <c r="N996" s="4"/>
+      <c r="O996" s="4"/>
+      <c r="P996" s="4"/>
+      <c r="Q996" s="4"/>
+      <c r="R996" s="4"/>
+      <c r="S996" s="4"/>
+      <c r="T996" s="4"/>
+      <c r="U996" s="4"/>
+      <c r="V996" s="5"/>
+      <c r="W996" s="4"/>
+      <c r="X996" s="4"/>
+      <c r="Y996" s="2"/>
+      <c r="Z996" s="2"/>
+      <c r="AA996" s="2"/>
+      <c r="AB996" s="2"/>
+      <c r="AC996" s="2"/>
+    </row>
+    <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="3"/>
+      <c r="C997" s="3"/>
+      <c r="D997" s="4"/>
+      <c r="E997" s="4"/>
+      <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
+      <c r="H997" s="4"/>
+      <c r="I997" s="3"/>
+      <c r="J997" s="3"/>
+      <c r="K997" s="5"/>
+      <c r="L997" s="4"/>
+      <c r="M997" s="4"/>
+      <c r="N997" s="4"/>
+      <c r="O997" s="4"/>
+      <c r="P997" s="4"/>
+      <c r="Q997" s="4"/>
+      <c r="R997" s="4"/>
+      <c r="S997" s="4"/>
+      <c r="T997" s="4"/>
+      <c r="U997" s="4"/>
+      <c r="V997" s="5"/>
+      <c r="W997" s="4"/>
+      <c r="X997" s="4"/>
+      <c r="Y997" s="2"/>
+      <c r="Z997" s="2"/>
+      <c r="AA997" s="2"/>
+      <c r="AB997" s="2"/>
+      <c r="AC997" s="2"/>
+    </row>
+    <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A998" s="2"/>
+      <c r="B998" s="3"/>
+      <c r="C998" s="3"/>
+      <c r="D998" s="4"/>
+      <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
+      <c r="I998" s="3"/>
+      <c r="J998" s="3"/>
+      <c r="K998" s="5"/>
+      <c r="L998" s="4"/>
+      <c r="M998" s="4"/>
+      <c r="N998" s="4"/>
+      <c r="O998" s="4"/>
+      <c r="P998" s="4"/>
+      <c r="Q998" s="4"/>
+      <c r="R998" s="4"/>
+      <c r="S998" s="4"/>
+      <c r="T998" s="4"/>
+      <c r="U998" s="4"/>
+      <c r="V998" s="5"/>
+      <c r="W998" s="4"/>
+      <c r="X998" s="4"/>
+      <c r="Y998" s="2"/>
+      <c r="Z998" s="2"/>
+      <c r="AA998" s="2"/>
+      <c r="AB998" s="2"/>
+      <c r="AC998" s="2"/>
+    </row>
+    <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A999" s="2"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="4"/>
+      <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
+      <c r="H999" s="4"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="5"/>
+      <c r="L999" s="4"/>
+      <c r="M999" s="4"/>
+      <c r="N999" s="4"/>
+      <c r="O999" s="4"/>
+      <c r="P999" s="4"/>
+      <c r="Q999" s="4"/>
+      <c r="R999" s="4"/>
+      <c r="S999" s="4"/>
+      <c r="T999" s="4"/>
+      <c r="U999" s="4"/>
+      <c r="V999" s="5"/>
+      <c r="W999" s="4"/>
+      <c r="X999" s="4"/>
+      <c r="Y999" s="2"/>
+      <c r="Z999" s="2"/>
+      <c r="AA999" s="2"/>
+      <c r="AB999" s="2"/>
+      <c r="AC999" s="2"/>
+    </row>
+    <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="3"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="5"/>
+      <c r="L1000" s="4"/>
+      <c r="M1000" s="4"/>
+      <c r="N1000" s="4"/>
+      <c r="O1000" s="4"/>
+      <c r="P1000" s="4"/>
+      <c r="Q1000" s="4"/>
+      <c r="R1000" s="4"/>
+      <c r="S1000" s="4"/>
+      <c r="T1000" s="4"/>
+      <c r="U1000" s="4"/>
+      <c r="V1000" s="5"/>
+      <c r="W1000" s="4"/>
+      <c r="X1000" s="4"/>
+      <c r="Y1000" s="2"/>
+      <c r="Z1000" s="2"/>
+      <c r="AA1000" s="2"/>
+      <c r="AB1000" s="2"/>
+      <c r="AC1000" s="2"/>
+    </row>
+    <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="5"/>
+      <c r="L1001" s="4"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="5"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+      <c r="AB1001" s="2"/>
+      <c r="AC1001" s="2"/>
+    </row>
+    <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="5"/>
+      <c r="L1002" s="4"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="5"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+      <c r="AA1002" s="2"/>
+      <c r="AB1002" s="2"/>
+      <c r="AC1002" s="2"/>
+    </row>
+    <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="3"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="4"/>
+      <c r="E1003" s="4"/>
+      <c r="F1003" s="4"/>
+      <c r="G1003" s="4"/>
+      <c r="H1003" s="4"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="5"/>
+      <c r="L1003" s="4"/>
+      <c r="M1003" s="4"/>
+      <c r="N1003" s="4"/>
+      <c r="O1003" s="4"/>
+      <c r="P1003" s="4"/>
+      <c r="Q1003" s="4"/>
+      <c r="R1003" s="4"/>
+      <c r="S1003" s="4"/>
+      <c r="T1003" s="4"/>
+      <c r="U1003" s="4"/>
+      <c r="V1003" s="5"/>
+      <c r="W1003" s="4"/>
+      <c r="X1003" s="4"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+      <c r="AA1003" s="2"/>
+      <c r="AB1003" s="2"/>
+      <c r="AC1003" s="2"/>
+    </row>
+    <row r="1004" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="3"/>
+      <c r="C1004" s="3"/>
+      <c r="D1004" s="4"/>
+      <c r="E1004" s="4"/>
+      <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
+      <c r="H1004" s="4"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="5"/>
+      <c r="L1004" s="4"/>
+      <c r="M1004" s="4"/>
+      <c r="N1004" s="4"/>
+      <c r="O1004" s="4"/>
+      <c r="P1004" s="4"/>
+      <c r="Q1004" s="4"/>
+      <c r="R1004" s="4"/>
+      <c r="S1004" s="4"/>
+      <c r="T1004" s="4"/>
+      <c r="U1004" s="4"/>
+      <c r="V1004" s="5"/>
+      <c r="W1004" s="4"/>
+      <c r="X1004" s="4"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+      <c r="AA1004" s="2"/>
+      <c r="AB1004" s="2"/>
+      <c r="AC1004" s="2"/>
+    </row>
+    <row r="1005" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="3"/>
+      <c r="C1005" s="3"/>
+      <c r="D1005" s="4"/>
+      <c r="E1005" s="4"/>
+      <c r="F1005" s="4"/>
+      <c r="G1005" s="4"/>
+      <c r="H1005" s="4"/>
+      <c r="I1005" s="3"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="5"/>
+      <c r="L1005" s="4"/>
+      <c r="M1005" s="4"/>
+      <c r="N1005" s="4"/>
+      <c r="O1005" s="4"/>
+      <c r="P1005" s="4"/>
+      <c r="Q1005" s="4"/>
+      <c r="R1005" s="4"/>
+      <c r="S1005" s="4"/>
+      <c r="T1005" s="4"/>
+      <c r="U1005" s="4"/>
+      <c r="V1005" s="5"/>
+      <c r="W1005" s="4"/>
+      <c r="X1005" s="4"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+      <c r="AA1005" s="2"/>
+      <c r="AB1005" s="2"/>
+      <c r="AC1005" s="2"/>
+    </row>
+    <row r="1006" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="3"/>
+      <c r="C1006" s="3"/>
+      <c r="D1006" s="4"/>
+      <c r="E1006" s="4"/>
+      <c r="F1006" s="4"/>
+      <c r="G1006" s="4"/>
+      <c r="H1006" s="4"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="3"/>
+      <c r="K1006" s="5"/>
+      <c r="L1006" s="4"/>
+      <c r="M1006" s="4"/>
+      <c r="N1006" s="4"/>
+      <c r="O1006" s="4"/>
+      <c r="P1006" s="4"/>
+      <c r="Q1006" s="4"/>
+      <c r="R1006" s="4"/>
+      <c r="S1006" s="4"/>
+      <c r="T1006" s="4"/>
+      <c r="U1006" s="4"/>
+      <c r="V1006" s="5"/>
+      <c r="W1006" s="4"/>
+      <c r="X1006" s="4"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+      <c r="AA1006" s="2"/>
+      <c r="AB1006" s="2"/>
+      <c r="AC1006" s="2"/>
+    </row>
+    <row r="1007" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="3"/>
+      <c r="C1007" s="3"/>
+      <c r="D1007" s="4"/>
+      <c r="E1007" s="4"/>
+      <c r="F1007" s="4"/>
+      <c r="G1007" s="4"/>
+      <c r="H1007" s="4"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="5"/>
+      <c r="L1007" s="4"/>
+      <c r="M1007" s="4"/>
+      <c r="N1007" s="4"/>
+      <c r="O1007" s="4"/>
+      <c r="P1007" s="4"/>
+      <c r="Q1007" s="4"/>
+      <c r="R1007" s="4"/>
+      <c r="S1007" s="4"/>
+      <c r="T1007" s="4"/>
+      <c r="U1007" s="4"/>
+      <c r="V1007" s="5"/>
+      <c r="W1007" s="4"/>
+      <c r="X1007" s="4"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+      <c r="AA1007" s="2"/>
+      <c r="AB1007" s="2"/>
+      <c r="AC1007" s="2"/>
+    </row>
+    <row r="1008" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="3"/>
+      <c r="C1008" s="3"/>
+      <c r="D1008" s="4"/>
+      <c r="E1008" s="4"/>
+      <c r="F1008" s="4"/>
+      <c r="G1008" s="4"/>
+      <c r="H1008" s="4"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="5"/>
+      <c r="L1008" s="4"/>
+      <c r="M1008" s="4"/>
+      <c r="N1008" s="4"/>
+      <c r="O1008" s="4"/>
+      <c r="P1008" s="4"/>
+      <c r="Q1008" s="4"/>
+      <c r="R1008" s="4"/>
+      <c r="S1008" s="4"/>
+      <c r="T1008" s="4"/>
+      <c r="U1008" s="4"/>
+      <c r="V1008" s="5"/>
+      <c r="W1008" s="4"/>
+      <c r="X1008" s="4"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+      <c r="AA1008" s="2"/>
+      <c r="AB1008" s="2"/>
+      <c r="AC1008" s="2"/>
+    </row>
+    <row r="1009" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="3"/>
+      <c r="C1009" s="3"/>
+      <c r="D1009" s="4"/>
+      <c r="E1009" s="4"/>
+      <c r="F1009" s="4"/>
+      <c r="G1009" s="4"/>
+      <c r="H1009" s="4"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="3"/>
+      <c r="K1009" s="5"/>
+      <c r="L1009" s="4"/>
+      <c r="M1009" s="4"/>
+      <c r="N1009" s="4"/>
+      <c r="O1009" s="4"/>
+      <c r="P1009" s="4"/>
+      <c r="Q1009" s="4"/>
+      <c r="R1009" s="4"/>
+      <c r="S1009" s="4"/>
+      <c r="T1009" s="4"/>
+      <c r="U1009" s="4"/>
+      <c r="V1009" s="5"/>
+      <c r="W1009" s="4"/>
+      <c r="X1009" s="4"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+      <c r="AB1009" s="2"/>
+      <c r="AC1009" s="2"/>
+    </row>
+    <row r="1010" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="3"/>
+      <c r="C1010" s="3"/>
+      <c r="D1010" s="4"/>
+      <c r="E1010" s="4"/>
+      <c r="F1010" s="4"/>
+      <c r="G1010" s="4"/>
+      <c r="H1010" s="4"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="3"/>
+      <c r="K1010" s="5"/>
+      <c r="L1010" s="4"/>
+      <c r="M1010" s="4"/>
+      <c r="N1010" s="4"/>
+      <c r="O1010" s="4"/>
+      <c r="P1010" s="4"/>
+      <c r="Q1010" s="4"/>
+      <c r="R1010" s="4"/>
+      <c r="S1010" s="4"/>
+      <c r="T1010" s="4"/>
+      <c r="U1010" s="4"/>
+      <c r="V1010" s="5"/>
+      <c r="W1010" s="4"/>
+      <c r="X1010" s="4"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+      <c r="AA1010" s="2"/>
+      <c r="AB1010" s="2"/>
+      <c r="AC1010" s="2"/>
+    </row>
+    <row r="1011" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="3"/>
+      <c r="C1011" s="3"/>
+      <c r="D1011" s="4"/>
+      <c r="E1011" s="4"/>
+      <c r="F1011" s="4"/>
+      <c r="G1011" s="4"/>
+      <c r="H1011" s="4"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="3"/>
+      <c r="K1011" s="5"/>
+      <c r="L1011" s="4"/>
+      <c r="M1011" s="4"/>
+      <c r="N1011" s="4"/>
+      <c r="O1011" s="4"/>
+      <c r="P1011" s="4"/>
+      <c r="Q1011" s="4"/>
+      <c r="R1011" s="4"/>
+      <c r="S1011" s="4"/>
+      <c r="T1011" s="4"/>
+      <c r="U1011" s="4"/>
+      <c r="V1011" s="5"/>
+      <c r="W1011" s="4"/>
+      <c r="X1011" s="4"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+      <c r="AA1011" s="2"/>
+      <c r="AB1011" s="2"/>
+      <c r="AC1011" s="2"/>
+    </row>
+    <row r="1012" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="3"/>
+      <c r="C1012" s="3"/>
+      <c r="D1012" s="4"/>
+      <c r="E1012" s="4"/>
+      <c r="F1012" s="4"/>
+      <c r="G1012" s="4"/>
+      <c r="H1012" s="4"/>
+      <c r="I1012" s="3"/>
+      <c r="J1012" s="3"/>
+      <c r="K1012" s="5"/>
+      <c r="L1012" s="4"/>
+      <c r="M1012" s="4"/>
+      <c r="N1012" s="4"/>
+      <c r="O1012" s="4"/>
+      <c r="P1012" s="4"/>
+      <c r="Q1012" s="4"/>
+      <c r="R1012" s="4"/>
+      <c r="S1012" s="4"/>
+      <c r="T1012" s="4"/>
+      <c r="U1012" s="4"/>
+      <c r="V1012" s="5"/>
+      <c r="W1012" s="4"/>
+      <c r="X1012" s="4"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+      <c r="AA1012" s="2"/>
+      <c r="AB1012" s="2"/>
+      <c r="AC1012" s="2"/>
+    </row>
+    <row r="1013" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="3"/>
+      <c r="C1013" s="3"/>
+      <c r="D1013" s="4"/>
+      <c r="E1013" s="4"/>
+      <c r="F1013" s="4"/>
+      <c r="G1013" s="4"/>
+      <c r="H1013" s="4"/>
+      <c r="I1013" s="3"/>
+      <c r="J1013" s="3"/>
+      <c r="K1013" s="5"/>
+      <c r="L1013" s="4"/>
+      <c r="M1013" s="4"/>
+      <c r="N1013" s="4"/>
+      <c r="O1013" s="4"/>
+      <c r="P1013" s="4"/>
+      <c r="Q1013" s="4"/>
+      <c r="R1013" s="4"/>
+      <c r="S1013" s="4"/>
+      <c r="T1013" s="4"/>
+      <c r="U1013" s="4"/>
+      <c r="V1013" s="5"/>
+      <c r="W1013" s="4"/>
+      <c r="X1013" s="4"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+      <c r="AA1013" s="2"/>
+      <c r="AB1013" s="2"/>
+      <c r="AC1013" s="2"/>
+    </row>
+    <row r="1014" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="3"/>
+      <c r="C1014" s="3"/>
+      <c r="D1014" s="4"/>
+      <c r="E1014" s="4"/>
+      <c r="F1014" s="4"/>
+      <c r="G1014" s="4"/>
+      <c r="H1014" s="4"/>
+      <c r="I1014" s="3"/>
+      <c r="J1014" s="3"/>
+      <c r="K1014" s="5"/>
+      <c r="L1014" s="4"/>
+      <c r="M1014" s="4"/>
+      <c r="N1014" s="4"/>
+      <c r="O1014" s="4"/>
+      <c r="P1014" s="4"/>
+      <c r="Q1014" s="4"/>
+      <c r="R1014" s="4"/>
+      <c r="S1014" s="4"/>
+      <c r="T1014" s="4"/>
+      <c r="U1014" s="4"/>
+      <c r="V1014" s="5"/>
+      <c r="W1014" s="4"/>
+      <c r="X1014" s="4"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+      <c r="AA1014" s="2"/>
+      <c r="AB1014" s="2"/>
+      <c r="AC1014" s="2"/>
+    </row>
+    <row r="1015" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="3"/>
+      <c r="C1015" s="3"/>
+      <c r="D1015" s="4"/>
+      <c r="E1015" s="4"/>
+      <c r="F1015" s="4"/>
+      <c r="G1015" s="4"/>
+      <c r="H1015" s="4"/>
+      <c r="I1015" s="3"/>
+      <c r="J1015" s="3"/>
+      <c r="K1015" s="5"/>
+      <c r="L1015" s="4"/>
+      <c r="M1015" s="4"/>
+      <c r="N1015" s="4"/>
+      <c r="O1015" s="4"/>
+      <c r="P1015" s="4"/>
+      <c r="Q1015" s="4"/>
+      <c r="R1015" s="4"/>
+      <c r="S1015" s="4"/>
+      <c r="T1015" s="4"/>
+      <c r="U1015" s="4"/>
+      <c r="V1015" s="5"/>
+      <c r="W1015" s="4"/>
+      <c r="X1015" s="4"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+      <c r="AA1015" s="2"/>
+      <c r="AB1015" s="2"/>
+      <c r="AC1015" s="2"/>
+    </row>
+    <row r="1016" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="3"/>
+      <c r="C1016" s="3"/>
+      <c r="D1016" s="4"/>
+      <c r="E1016" s="4"/>
+      <c r="F1016" s="4"/>
+      <c r="G1016" s="4"/>
+      <c r="H1016" s="4"/>
+      <c r="I1016" s="3"/>
+      <c r="J1016" s="3"/>
+      <c r="K1016" s="5"/>
+      <c r="L1016" s="4"/>
+      <c r="M1016" s="4"/>
+      <c r="N1016" s="4"/>
+      <c r="O1016" s="4"/>
+      <c r="P1016" s="4"/>
+      <c r="Q1016" s="4"/>
+      <c r="R1016" s="4"/>
+      <c r="S1016" s="4"/>
+      <c r="T1016" s="4"/>
+      <c r="U1016" s="4"/>
+      <c r="V1016" s="5"/>
+      <c r="W1016" s="4"/>
+      <c r="X1016" s="4"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+      <c r="AA1016" s="2"/>
+      <c r="AB1016" s="2"/>
+      <c r="AC1016" s="2"/>
+    </row>
+    <row r="1017" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="3"/>
+      <c r="C1017" s="3"/>
+      <c r="D1017" s="4"/>
+      <c r="E1017" s="4"/>
+      <c r="F1017" s="4"/>
+      <c r="G1017" s="4"/>
+      <c r="H1017" s="4"/>
+      <c r="I1017" s="3"/>
+      <c r="J1017" s="3"/>
+      <c r="K1017" s="5"/>
+      <c r="L1017" s="4"/>
+      <c r="M1017" s="4"/>
+      <c r="N1017" s="4"/>
+      <c r="O1017" s="4"/>
+      <c r="P1017" s="4"/>
+      <c r="Q1017" s="4"/>
+      <c r="R1017" s="4"/>
+      <c r="S1017" s="4"/>
+      <c r="T1017" s="4"/>
+      <c r="U1017" s="4"/>
+      <c r="V1017" s="5"/>
+      <c r="W1017" s="4"/>
+      <c r="X1017" s="4"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+      <c r="AA1017" s="2"/>
+      <c r="AB1017" s="2"/>
+      <c r="AC1017" s="2"/>
+    </row>
+    <row r="1018" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="3"/>
+      <c r="C1018" s="3"/>
+      <c r="D1018" s="4"/>
+      <c r="E1018" s="4"/>
+      <c r="F1018" s="4"/>
+      <c r="G1018" s="4"/>
+      <c r="H1018" s="4"/>
+      <c r="I1018" s="3"/>
+      <c r="J1018" s="3"/>
+      <c r="K1018" s="5"/>
+      <c r="L1018" s="4"/>
+      <c r="M1018" s="4"/>
+      <c r="N1018" s="4"/>
+      <c r="O1018" s="4"/>
+      <c r="P1018" s="4"/>
+      <c r="Q1018" s="4"/>
+      <c r="R1018" s="4"/>
+      <c r="S1018" s="4"/>
+      <c r="T1018" s="4"/>
+      <c r="U1018" s="4"/>
+      <c r="V1018" s="5"/>
+      <c r="W1018" s="4"/>
+      <c r="X1018" s="4"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+      <c r="AA1018" s="2"/>
+      <c r="AB1018" s="2"/>
+      <c r="AC1018" s="2"/>
+    </row>
+    <row r="1019" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="3"/>
+      <c r="C1019" s="3"/>
+      <c r="D1019" s="4"/>
+      <c r="E1019" s="4"/>
+      <c r="F1019" s="4"/>
+      <c r="G1019" s="4"/>
+      <c r="H1019" s="4"/>
+      <c r="I1019" s="3"/>
+      <c r="J1019" s="3"/>
+      <c r="K1019" s="5"/>
+      <c r="L1019" s="4"/>
+      <c r="M1019" s="4"/>
+      <c r="N1019" s="4"/>
+      <c r="O1019" s="4"/>
+      <c r="P1019" s="4"/>
+      <c r="Q1019" s="4"/>
+      <c r="R1019" s="4"/>
+      <c r="S1019" s="4"/>
+      <c r="T1019" s="4"/>
+      <c r="U1019" s="4"/>
+      <c r="V1019" s="5"/>
+      <c r="W1019" s="4"/>
+      <c r="X1019" s="4"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+      <c r="AA1019" s="2"/>
+      <c r="AB1019" s="2"/>
+      <c r="AC1019" s="2"/>
+    </row>
+    <row r="1020" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="3"/>
+      <c r="C1020" s="3"/>
+      <c r="D1020" s="4"/>
+      <c r="E1020" s="4"/>
+      <c r="F1020" s="4"/>
+      <c r="G1020" s="4"/>
+      <c r="H1020" s="4"/>
+      <c r="I1020" s="3"/>
+      <c r="J1020" s="3"/>
+      <c r="K1020" s="5"/>
+      <c r="L1020" s="4"/>
+      <c r="M1020" s="4"/>
+      <c r="N1020" s="4"/>
+      <c r="O1020" s="4"/>
+      <c r="P1020" s="4"/>
+      <c r="Q1020" s="4"/>
+      <c r="R1020" s="4"/>
+      <c r="S1020" s="4"/>
+      <c r="T1020" s="4"/>
+      <c r="U1020" s="4"/>
+      <c r="V1020" s="5"/>
+      <c r="W1020" s="4"/>
+      <c r="X1020" s="4"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+      <c r="AA1020" s="2"/>
+      <c r="AB1020" s="2"/>
+      <c r="AC1020" s="2"/>
+    </row>
+    <row r="1021" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="3"/>
+      <c r="C1021" s="3"/>
+      <c r="D1021" s="4"/>
+      <c r="E1021" s="4"/>
+      <c r="F1021" s="4"/>
+      <c r="G1021" s="4"/>
+      <c r="H1021" s="4"/>
+      <c r="I1021" s="3"/>
+      <c r="J1021" s="3"/>
+      <c r="K1021" s="5"/>
+      <c r="L1021" s="4"/>
+      <c r="M1021" s="4"/>
+      <c r="N1021" s="4"/>
+      <c r="O1021" s="4"/>
+      <c r="P1021" s="4"/>
+      <c r="Q1021" s="4"/>
+      <c r="R1021" s="4"/>
+      <c r="S1021" s="4"/>
+      <c r="T1021" s="4"/>
+      <c r="U1021" s="4"/>
+      <c r="V1021" s="5"/>
+      <c r="W1021" s="4"/>
+      <c r="X1021" s="4"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+      <c r="AA1021" s="2"/>
+      <c r="AB1021" s="2"/>
+      <c r="AC1021" s="2"/>
+    </row>
+    <row r="1022" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="3"/>
+      <c r="C1022" s="3"/>
+      <c r="D1022" s="4"/>
+      <c r="E1022" s="4"/>
+      <c r="F1022" s="4"/>
+      <c r="G1022" s="4"/>
+      <c r="H1022" s="4"/>
+      <c r="I1022" s="3"/>
+      <c r="J1022" s="3"/>
+      <c r="K1022" s="5"/>
+      <c r="L1022" s="4"/>
+      <c r="M1022" s="4"/>
+      <c r="N1022" s="4"/>
+      <c r="O1022" s="4"/>
+      <c r="P1022" s="4"/>
+      <c r="Q1022" s="4"/>
+      <c r="R1022" s="4"/>
+      <c r="S1022" s="4"/>
+      <c r="T1022" s="4"/>
+      <c r="U1022" s="4"/>
+      <c r="V1022" s="5"/>
+      <c r="W1022" s="4"/>
+      <c r="X1022" s="4"/>
+      <c r="Y1022" s="2"/>
+      <c r="Z1022" s="2"/>
+      <c r="AA1022" s="2"/>
+      <c r="AB1022" s="2"/>
+      <c r="AC1022" s="2"/>
+    </row>
+    <row r="1023" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="3"/>
+      <c r="C1023" s="3"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="4"/>
+      <c r="F1023" s="4"/>
+      <c r="G1023" s="4"/>
+      <c r="H1023" s="4"/>
+      <c r="I1023" s="3"/>
+      <c r="J1023" s="3"/>
+      <c r="K1023" s="5"/>
+      <c r="L1023" s="4"/>
+      <c r="M1023" s="4"/>
+      <c r="N1023" s="4"/>
+      <c r="O1023" s="4"/>
+      <c r="P1023" s="4"/>
+      <c r="Q1023" s="4"/>
+      <c r="R1023" s="4"/>
+      <c r="S1023" s="4"/>
+      <c r="T1023" s="4"/>
+      <c r="U1023" s="4"/>
+      <c r="V1023" s="5"/>
+      <c r="W1023" s="4"/>
+      <c r="X1023" s="4"/>
+      <c r="Y1023" s="2"/>
+      <c r="Z1023" s="2"/>
+      <c r="AA1023" s="2"/>
+      <c r="AB1023" s="2"/>
+      <c r="AC1023" s="2"/>
+    </row>
+    <row r="1024" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="3"/>
+      <c r="C1024" s="3"/>
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="4"/>
+      <c r="F1024" s="4"/>
+      <c r="G1024" s="4"/>
+      <c r="H1024" s="4"/>
+      <c r="I1024" s="3"/>
+      <c r="J1024" s="3"/>
+      <c r="K1024" s="5"/>
+      <c r="L1024" s="4"/>
+      <c r="M1024" s="4"/>
+      <c r="N1024" s="4"/>
+      <c r="O1024" s="4"/>
+      <c r="P1024" s="4"/>
+      <c r="Q1024" s="4"/>
+      <c r="R1024" s="4"/>
+      <c r="S1024" s="4"/>
+      <c r="T1024" s="4"/>
+      <c r="U1024" s="4"/>
+      <c r="V1024" s="5"/>
+      <c r="W1024" s="4"/>
+      <c r="X1024" s="4"/>
+      <c r="Y1024" s="2"/>
+      <c r="Z1024" s="2"/>
+      <c r="AA1024" s="2"/>
+      <c r="AB1024" s="2"/>
+      <c r="AC1024" s="2"/>
+    </row>
+    <row r="1025" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="3"/>
+      <c r="C1025" s="3"/>
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="4"/>
+      <c r="F1025" s="4"/>
+      <c r="G1025" s="4"/>
+      <c r="H1025" s="4"/>
+      <c r="I1025" s="3"/>
+      <c r="J1025" s="3"/>
+      <c r="K1025" s="5"/>
+      <c r="L1025" s="4"/>
+      <c r="M1025" s="4"/>
+      <c r="N1025" s="4"/>
+      <c r="O1025" s="4"/>
+      <c r="P1025" s="4"/>
+      <c r="Q1025" s="4"/>
+      <c r="R1025" s="4"/>
+      <c r="S1025" s="4"/>
+      <c r="T1025" s="4"/>
+      <c r="U1025" s="4"/>
+      <c r="V1025" s="5"/>
+      <c r="W1025" s="4"/>
+      <c r="X1025" s="4"/>
+      <c r="Y1025" s="2"/>
+      <c r="Z1025" s="2"/>
+      <c r="AA1025" s="2"/>
+      <c r="AB1025" s="2"/>
+      <c r="AC1025" s="2"/>
+    </row>
+    <row r="1026" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="3"/>
+      <c r="C1026" s="3"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="4"/>
+      <c r="H1026" s="4"/>
+      <c r="I1026" s="3"/>
+      <c r="J1026" s="3"/>
+      <c r="K1026" s="5"/>
+      <c r="L1026" s="4"/>
+      <c r="M1026" s="4"/>
+      <c r="N1026" s="4"/>
+      <c r="O1026" s="4"/>
+      <c r="P1026" s="4"/>
+      <c r="Q1026" s="4"/>
+      <c r="R1026" s="4"/>
+      <c r="S1026" s="4"/>
+      <c r="T1026" s="4"/>
+      <c r="U1026" s="4"/>
+      <c r="V1026" s="5"/>
+      <c r="W1026" s="4"/>
+      <c r="X1026" s="4"/>
+      <c r="Y1026" s="2"/>
+      <c r="Z1026" s="2"/>
+      <c r="AA1026" s="2"/>
+      <c r="AB1026" s="2"/>
+      <c r="AC1026" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="54">
     <mergeCell ref="B3:D3"/>
@@ -32208,23 +33220,23 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="V20:X20"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="B28:J43"/>
-    <mergeCell ref="K28:T43"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="L61:U61"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="K66:T66"/>
+    <mergeCell ref="V66:X68"/>
+    <mergeCell ref="B67:J82"/>
+    <mergeCell ref="K67:T82"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V83:X83"/>
   </mergeCells>
-  <conditionalFormatting sqref="V21">
+  <conditionalFormatting sqref="V21:V60">
     <cfRule type="cellIs" priority="2" operator="notBetween" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
       <formula>1</formula>
@@ -32237,7 +33249,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32252,7 +33263,7 @@
       <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.27734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.56"/>
@@ -32265,3152 +33276,3152 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G1" s="92"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="92"/>
+      <c r="G2" s="93"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="C3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="D3" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93" t="s">
+      <c r="E3" s="94" t="s">
         <v>45</v>
       </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="94" t="n">
+      <c r="B5" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="95" t="s">
+      <c r="C5" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94"/>
+      <c r="E5" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="96"/>
+      <c r="G5" s="95"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="94" t="n">
+      <c r="B6" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="95" t="s">
+      <c r="C6" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="D6" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="98" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="98" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="98"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="97"/>
-    </row>
-    <row r="10" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="99" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="98"/>
+    </row>
+    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="97"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="98" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="92"/>
+      <c r="G12" s="93"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="92"/>
+      <c r="G13" s="93"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="92"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="100" t="s">
+      <c r="D15" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="E15" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="101"/>
+      <c r="F15" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="102"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="102" t="n">
+      <c r="D16" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="103" t="s">
-        <v>60</v>
+      <c r="E16" s="104" t="s">
+        <v>61</v>
       </c>
-      <c r="F16" s="102" t="n">
+      <c r="F16" s="103" t="n">
         <v>0.2</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="93"/>
     </row>
     <row r="17" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="102" t="n">
+      <c r="D17" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="103" t="s">
-        <v>61</v>
+      <c r="E17" s="104" t="s">
+        <v>62</v>
       </c>
-      <c r="F17" s="102" t="n">
+      <c r="F17" s="103" t="n">
         <v>0.4</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="93"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="102" t="n">
+      <c r="D18" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="103" t="s">
-        <v>62</v>
+      <c r="E18" s="104" t="s">
+        <v>63</v>
       </c>
-      <c r="F18" s="102" t="n">
+      <c r="F18" s="103" t="n">
         <v>0.6</v>
       </c>
-      <c r="G18" s="92"/>
+      <c r="G18" s="93"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="102" t="n">
+      <c r="D19" s="103" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="103" t="s">
-        <v>63</v>
+      <c r="E19" s="104" t="s">
+        <v>64</v>
       </c>
-      <c r="F19" s="102" t="n">
+      <c r="F19" s="103" t="n">
         <v>0.8</v>
       </c>
-      <c r="G19" s="92"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="102" t="n">
+      <c r="D20" s="103" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="103" t="s">
-        <v>64</v>
+      <c r="E20" s="104" t="s">
+        <v>65</v>
       </c>
-      <c r="F20" s="102" t="n">
+      <c r="F20" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="92"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G21" s="92"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G22" s="92"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G23" s="92"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G25" s="92"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G26" s="92"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G27" s="92"/>
+      <c r="G27" s="93"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G28" s="92"/>
+      <c r="G28" s="93"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G29" s="92"/>
+      <c r="G29" s="93"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G30" s="92"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G31" s="92"/>
+      <c r="G31" s="93"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G32" s="92"/>
+      <c r="G32" s="93"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G33" s="92"/>
+      <c r="G33" s="93"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G34" s="92"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G35" s="92"/>
+      <c r="G35" s="93"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G36" s="92"/>
+      <c r="G36" s="93"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G37" s="92"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G38" s="92"/>
+      <c r="G38" s="93"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G39" s="92"/>
+      <c r="G39" s="93"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G40" s="92"/>
+      <c r="G40" s="93"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G41" s="92"/>
+      <c r="G41" s="93"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G42" s="92"/>
+      <c r="G42" s="93"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G43" s="92"/>
+      <c r="G43" s="93"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G44" s="92"/>
+      <c r="G44" s="93"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G45" s="92"/>
+      <c r="G45" s="93"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G46" s="92"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G47" s="92"/>
+      <c r="G47" s="93"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G48" s="92"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G49" s="92"/>
+      <c r="G49" s="93"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G50" s="92"/>
+      <c r="G50" s="93"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G51" s="92"/>
+      <c r="G51" s="93"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G52" s="92"/>
+      <c r="G52" s="93"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G53" s="92"/>
+      <c r="G53" s="93"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G54" s="92"/>
+      <c r="G54" s="93"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G55" s="92"/>
+      <c r="G55" s="93"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G56" s="92"/>
+      <c r="G56" s="93"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G57" s="92"/>
+      <c r="G57" s="93"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G58" s="92"/>
+      <c r="G58" s="93"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G59" s="92"/>
+      <c r="G59" s="93"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G60" s="92"/>
+      <c r="G60" s="93"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G61" s="92"/>
+      <c r="G61" s="93"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G62" s="92"/>
+      <c r="G62" s="93"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G63" s="92"/>
+      <c r="G63" s="93"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G64" s="92"/>
+      <c r="G64" s="93"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G65" s="92"/>
+      <c r="G65" s="93"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G66" s="92"/>
+      <c r="G66" s="93"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G67" s="92"/>
+      <c r="G67" s="93"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G68" s="92"/>
+      <c r="G68" s="93"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G69" s="92"/>
+      <c r="G69" s="93"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G70" s="92"/>
+      <c r="G70" s="93"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G71" s="92"/>
+      <c r="G71" s="93"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G72" s="92"/>
+      <c r="G72" s="93"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G73" s="92"/>
+      <c r="G73" s="93"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G74" s="92"/>
+      <c r="G74" s="93"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G75" s="92"/>
+      <c r="G75" s="93"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G76" s="92"/>
+      <c r="G76" s="93"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G77" s="92"/>
+      <c r="G77" s="93"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G78" s="92"/>
+      <c r="G78" s="93"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G79" s="92"/>
+      <c r="G79" s="93"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G80" s="92"/>
+      <c r="G80" s="93"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G81" s="92"/>
+      <c r="G81" s="93"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G82" s="92"/>
+      <c r="G82" s="93"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G83" s="92"/>
+      <c r="G83" s="93"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G84" s="92"/>
+      <c r="G84" s="93"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G85" s="92"/>
+      <c r="G85" s="93"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G86" s="92"/>
+      <c r="G86" s="93"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G87" s="92"/>
+      <c r="G87" s="93"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G88" s="92"/>
+      <c r="G88" s="93"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G89" s="92"/>
+      <c r="G89" s="93"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G90" s="92"/>
+      <c r="G90" s="93"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G91" s="92"/>
+      <c r="G91" s="93"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G92" s="92"/>
+      <c r="G92" s="93"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G93" s="92"/>
+      <c r="G93" s="93"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G94" s="92"/>
+      <c r="G94" s="93"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G95" s="92"/>
+      <c r="G95" s="93"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G96" s="92"/>
+      <c r="G96" s="93"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G97" s="92"/>
+      <c r="G97" s="93"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G98" s="92"/>
+      <c r="G98" s="93"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G99" s="92"/>
+      <c r="G99" s="93"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G100" s="92"/>
+      <c r="G100" s="93"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G101" s="92"/>
+      <c r="G101" s="93"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G102" s="92"/>
+      <c r="G102" s="93"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G103" s="92"/>
+      <c r="G103" s="93"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G104" s="92"/>
+      <c r="G104" s="93"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G105" s="92"/>
+      <c r="G105" s="93"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G106" s="92"/>
+      <c r="G106" s="93"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G107" s="92"/>
+      <c r="G107" s="93"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G108" s="92"/>
+      <c r="G108" s="93"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G109" s="92"/>
+      <c r="G109" s="93"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G110" s="92"/>
+      <c r="G110" s="93"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G111" s="92"/>
+      <c r="G111" s="93"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G112" s="92"/>
+      <c r="G112" s="93"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G113" s="92"/>
+      <c r="G113" s="93"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G114" s="92"/>
+      <c r="G114" s="93"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G115" s="92"/>
+      <c r="G115" s="93"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G116" s="92"/>
+      <c r="G116" s="93"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G117" s="92"/>
+      <c r="G117" s="93"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G118" s="92"/>
+      <c r="G118" s="93"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G119" s="92"/>
+      <c r="G119" s="93"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G120" s="92"/>
+      <c r="G120" s="93"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G121" s="92"/>
+      <c r="G121" s="93"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G122" s="92"/>
+      <c r="G122" s="93"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G123" s="92"/>
+      <c r="G123" s="93"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G124" s="92"/>
+      <c r="G124" s="93"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G125" s="92"/>
+      <c r="G125" s="93"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G126" s="92"/>
+      <c r="G126" s="93"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G127" s="92"/>
+      <c r="G127" s="93"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G128" s="92"/>
+      <c r="G128" s="93"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G129" s="92"/>
+      <c r="G129" s="93"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G130" s="92"/>
+      <c r="G130" s="93"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G131" s="92"/>
+      <c r="G131" s="93"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G132" s="92"/>
+      <c r="G132" s="93"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G133" s="92"/>
+      <c r="G133" s="93"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G134" s="92"/>
+      <c r="G134" s="93"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G135" s="92"/>
+      <c r="G135" s="93"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G136" s="92"/>
+      <c r="G136" s="93"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G137" s="92"/>
+      <c r="G137" s="93"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G138" s="92"/>
+      <c r="G138" s="93"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G139" s="92"/>
+      <c r="G139" s="93"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G140" s="92"/>
+      <c r="G140" s="93"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G141" s="92"/>
+      <c r="G141" s="93"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G142" s="92"/>
+      <c r="G142" s="93"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G143" s="92"/>
+      <c r="G143" s="93"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G144" s="92"/>
+      <c r="G144" s="93"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G145" s="92"/>
+      <c r="G145" s="93"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G146" s="92"/>
+      <c r="G146" s="93"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G147" s="92"/>
+      <c r="G147" s="93"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G148" s="92"/>
+      <c r="G148" s="93"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G149" s="92"/>
+      <c r="G149" s="93"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G150" s="92"/>
+      <c r="G150" s="93"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G151" s="92"/>
+      <c r="G151" s="93"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G152" s="92"/>
+      <c r="G152" s="93"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G153" s="92"/>
+      <c r="G153" s="93"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G154" s="92"/>
+      <c r="G154" s="93"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G155" s="92"/>
+      <c r="G155" s="93"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G156" s="92"/>
+      <c r="G156" s="93"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G157" s="92"/>
+      <c r="G157" s="93"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G158" s="92"/>
+      <c r="G158" s="93"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G159" s="92"/>
+      <c r="G159" s="93"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G160" s="92"/>
+      <c r="G160" s="93"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G161" s="92"/>
+      <c r="G161" s="93"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G162" s="92"/>
+      <c r="G162" s="93"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G163" s="92"/>
+      <c r="G163" s="93"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G164" s="92"/>
+      <c r="G164" s="93"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G165" s="92"/>
+      <c r="G165" s="93"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G166" s="92"/>
+      <c r="G166" s="93"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G167" s="92"/>
+      <c r="G167" s="93"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G168" s="92"/>
+      <c r="G168" s="93"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G169" s="92"/>
+      <c r="G169" s="93"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G170" s="92"/>
+      <c r="G170" s="93"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G171" s="92"/>
+      <c r="G171" s="93"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G172" s="92"/>
+      <c r="G172" s="93"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G173" s="92"/>
+      <c r="G173" s="93"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G174" s="92"/>
+      <c r="G174" s="93"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G175" s="92"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G176" s="92"/>
+      <c r="G176" s="93"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G177" s="92"/>
+      <c r="G177" s="93"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G178" s="92"/>
+      <c r="G178" s="93"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G179" s="92"/>
+      <c r="G179" s="93"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G180" s="92"/>
+      <c r="G180" s="93"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G181" s="92"/>
+      <c r="G181" s="93"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G182" s="92"/>
+      <c r="G182" s="93"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G183" s="92"/>
+      <c r="G183" s="93"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G184" s="92"/>
+      <c r="G184" s="93"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G185" s="92"/>
+      <c r="G185" s="93"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G186" s="92"/>
+      <c r="G186" s="93"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G187" s="92"/>
+      <c r="G187" s="93"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G188" s="92"/>
+      <c r="G188" s="93"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G189" s="92"/>
+      <c r="G189" s="93"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G190" s="92"/>
+      <c r="G190" s="93"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G191" s="92"/>
+      <c r="G191" s="93"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G192" s="92"/>
+      <c r="G192" s="93"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G193" s="92"/>
+      <c r="G193" s="93"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G194" s="92"/>
+      <c r="G194" s="93"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G195" s="92"/>
+      <c r="G195" s="93"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G196" s="92"/>
+      <c r="G196" s="93"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G197" s="92"/>
+      <c r="G197" s="93"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G198" s="92"/>
+      <c r="G198" s="93"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G199" s="92"/>
+      <c r="G199" s="93"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G200" s="92"/>
+      <c r="G200" s="93"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G201" s="92"/>
+      <c r="G201" s="93"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G202" s="92"/>
+      <c r="G202" s="93"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G203" s="92"/>
+      <c r="G203" s="93"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G204" s="92"/>
+      <c r="G204" s="93"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G205" s="92"/>
+      <c r="G205" s="93"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G206" s="92"/>
+      <c r="G206" s="93"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G207" s="92"/>
+      <c r="G207" s="93"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G208" s="92"/>
+      <c r="G208" s="93"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G209" s="92"/>
+      <c r="G209" s="93"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G210" s="92"/>
+      <c r="G210" s="93"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G211" s="92"/>
+      <c r="G211" s="93"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G212" s="92"/>
+      <c r="G212" s="93"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G213" s="92"/>
+      <c r="G213" s="93"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G214" s="92"/>
+      <c r="G214" s="93"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G215" s="92"/>
+      <c r="G215" s="93"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G216" s="92"/>
+      <c r="G216" s="93"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G217" s="92"/>
+      <c r="G217" s="93"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G218" s="92"/>
+      <c r="G218" s="93"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G219" s="92"/>
+      <c r="G219" s="93"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G220" s="92"/>
+      <c r="G220" s="93"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G221" s="92"/>
+      <c r="G221" s="93"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G222" s="92"/>
+      <c r="G222" s="93"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G223" s="92"/>
+      <c r="G223" s="93"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G224" s="92"/>
+      <c r="G224" s="93"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G225" s="92"/>
+      <c r="G225" s="93"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G226" s="92"/>
+      <c r="G226" s="93"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G227" s="92"/>
+      <c r="G227" s="93"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G228" s="92"/>
+      <c r="G228" s="93"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G229" s="92"/>
+      <c r="G229" s="93"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G230" s="92"/>
+      <c r="G230" s="93"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G231" s="92"/>
+      <c r="G231" s="93"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G232" s="92"/>
+      <c r="G232" s="93"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G233" s="92"/>
+      <c r="G233" s="93"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G234" s="92"/>
+      <c r="G234" s="93"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G235" s="92"/>
+      <c r="G235" s="93"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G236" s="92"/>
+      <c r="G236" s="93"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G237" s="92"/>
+      <c r="G237" s="93"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G238" s="92"/>
+      <c r="G238" s="93"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G239" s="92"/>
+      <c r="G239" s="93"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G240" s="92"/>
+      <c r="G240" s="93"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G241" s="92"/>
+      <c r="G241" s="93"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G242" s="92"/>
+      <c r="G242" s="93"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G243" s="92"/>
+      <c r="G243" s="93"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G244" s="92"/>
+      <c r="G244" s="93"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G245" s="92"/>
+      <c r="G245" s="93"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G246" s="92"/>
+      <c r="G246" s="93"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G247" s="92"/>
+      <c r="G247" s="93"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G248" s="92"/>
+      <c r="G248" s="93"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G249" s="92"/>
+      <c r="G249" s="93"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G250" s="92"/>
+      <c r="G250" s="93"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G251" s="92"/>
+      <c r="G251" s="93"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G252" s="92"/>
+      <c r="G252" s="93"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G253" s="92"/>
+      <c r="G253" s="93"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G254" s="92"/>
+      <c r="G254" s="93"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G255" s="92"/>
+      <c r="G255" s="93"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G256" s="92"/>
+      <c r="G256" s="93"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G257" s="92"/>
+      <c r="G257" s="93"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G258" s="92"/>
+      <c r="G258" s="93"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G259" s="92"/>
+      <c r="G259" s="93"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G260" s="92"/>
+      <c r="G260" s="93"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G261" s="92"/>
+      <c r="G261" s="93"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G262" s="92"/>
+      <c r="G262" s="93"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G263" s="92"/>
+      <c r="G263" s="93"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G264" s="92"/>
+      <c r="G264" s="93"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G265" s="92"/>
+      <c r="G265" s="93"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G266" s="92"/>
+      <c r="G266" s="93"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G267" s="92"/>
+      <c r="G267" s="93"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G268" s="92"/>
+      <c r="G268" s="93"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G269" s="92"/>
+      <c r="G269" s="93"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G270" s="92"/>
+      <c r="G270" s="93"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G271" s="92"/>
+      <c r="G271" s="93"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G272" s="92"/>
+      <c r="G272" s="93"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G273" s="92"/>
+      <c r="G273" s="93"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G274" s="92"/>
+      <c r="G274" s="93"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G275" s="92"/>
+      <c r="G275" s="93"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G276" s="92"/>
+      <c r="G276" s="93"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G277" s="92"/>
+      <c r="G277" s="93"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G278" s="92"/>
+      <c r="G278" s="93"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G279" s="92"/>
+      <c r="G279" s="93"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G280" s="92"/>
+      <c r="G280" s="93"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G281" s="92"/>
+      <c r="G281" s="93"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G282" s="92"/>
+      <c r="G282" s="93"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G283" s="92"/>
+      <c r="G283" s="93"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G284" s="92"/>
+      <c r="G284" s="93"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G285" s="92"/>
+      <c r="G285" s="93"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G286" s="92"/>
+      <c r="G286" s="93"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G287" s="92"/>
+      <c r="G287" s="93"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G288" s="92"/>
+      <c r="G288" s="93"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G289" s="92"/>
+      <c r="G289" s="93"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G290" s="92"/>
+      <c r="G290" s="93"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G291" s="92"/>
+      <c r="G291" s="93"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G292" s="92"/>
+      <c r="G292" s="93"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G293" s="92"/>
+      <c r="G293" s="93"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G294" s="92"/>
+      <c r="G294" s="93"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G295" s="92"/>
+      <c r="G295" s="93"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G296" s="92"/>
+      <c r="G296" s="93"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G297" s="92"/>
+      <c r="G297" s="93"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G298" s="92"/>
+      <c r="G298" s="93"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G299" s="92"/>
+      <c r="G299" s="93"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G300" s="92"/>
+      <c r="G300" s="93"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G301" s="92"/>
+      <c r="G301" s="93"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G302" s="92"/>
+      <c r="G302" s="93"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G303" s="92"/>
+      <c r="G303" s="93"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G304" s="92"/>
+      <c r="G304" s="93"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G305" s="92"/>
+      <c r="G305" s="93"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G306" s="92"/>
+      <c r="G306" s="93"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G307" s="92"/>
+      <c r="G307" s="93"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G308" s="92"/>
+      <c r="G308" s="93"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G309" s="92"/>
+      <c r="G309" s="93"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G310" s="92"/>
+      <c r="G310" s="93"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G311" s="92"/>
+      <c r="G311" s="93"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G312" s="92"/>
+      <c r="G312" s="93"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G313" s="92"/>
+      <c r="G313" s="93"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G314" s="92"/>
+      <c r="G314" s="93"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G315" s="92"/>
+      <c r="G315" s="93"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G316" s="92"/>
+      <c r="G316" s="93"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G317" s="92"/>
+      <c r="G317" s="93"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G318" s="92"/>
+      <c r="G318" s="93"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G319" s="92"/>
+      <c r="G319" s="93"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G320" s="92"/>
+      <c r="G320" s="93"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G321" s="92"/>
+      <c r="G321" s="93"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G322" s="92"/>
+      <c r="G322" s="93"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G323" s="92"/>
+      <c r="G323" s="93"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G324" s="92"/>
+      <c r="G324" s="93"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G325" s="92"/>
+      <c r="G325" s="93"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G326" s="92"/>
+      <c r="G326" s="93"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G327" s="92"/>
+      <c r="G327" s="93"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G328" s="92"/>
+      <c r="G328" s="93"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G329" s="92"/>
+      <c r="G329" s="93"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G330" s="92"/>
+      <c r="G330" s="93"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G331" s="92"/>
+      <c r="G331" s="93"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G332" s="92"/>
+      <c r="G332" s="93"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G333" s="92"/>
+      <c r="G333" s="93"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G334" s="92"/>
+      <c r="G334" s="93"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G335" s="92"/>
+      <c r="G335" s="93"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G336" s="92"/>
+      <c r="G336" s="93"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G337" s="92"/>
+      <c r="G337" s="93"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G338" s="92"/>
+      <c r="G338" s="93"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G339" s="92"/>
+      <c r="G339" s="93"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G340" s="92"/>
+      <c r="G340" s="93"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G341" s="92"/>
+      <c r="G341" s="93"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G342" s="92"/>
+      <c r="G342" s="93"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G343" s="92"/>
+      <c r="G343" s="93"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G344" s="92"/>
+      <c r="G344" s="93"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G345" s="92"/>
+      <c r="G345" s="93"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G346" s="92"/>
+      <c r="G346" s="93"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G347" s="92"/>
+      <c r="G347" s="93"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G348" s="92"/>
+      <c r="G348" s="93"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G349" s="92"/>
+      <c r="G349" s="93"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G350" s="92"/>
+      <c r="G350" s="93"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G351" s="92"/>
+      <c r="G351" s="93"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G352" s="92"/>
+      <c r="G352" s="93"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G353" s="92"/>
+      <c r="G353" s="93"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G354" s="92"/>
+      <c r="G354" s="93"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G355" s="92"/>
+      <c r="G355" s="93"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G356" s="92"/>
+      <c r="G356" s="93"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G357" s="92"/>
+      <c r="G357" s="93"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G358" s="92"/>
+      <c r="G358" s="93"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G359" s="92"/>
+      <c r="G359" s="93"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G360" s="92"/>
+      <c r="G360" s="93"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G361" s="92"/>
+      <c r="G361" s="93"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G362" s="92"/>
+      <c r="G362" s="93"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G363" s="92"/>
+      <c r="G363" s="93"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G364" s="92"/>
+      <c r="G364" s="93"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G365" s="92"/>
+      <c r="G365" s="93"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G366" s="92"/>
+      <c r="G366" s="93"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G367" s="92"/>
+      <c r="G367" s="93"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G368" s="92"/>
+      <c r="G368" s="93"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G369" s="92"/>
+      <c r="G369" s="93"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G370" s="92"/>
+      <c r="G370" s="93"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G371" s="92"/>
+      <c r="G371" s="93"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G372" s="92"/>
+      <c r="G372" s="93"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G373" s="92"/>
+      <c r="G373" s="93"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G374" s="92"/>
+      <c r="G374" s="93"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G375" s="92"/>
+      <c r="G375" s="93"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G376" s="92"/>
+      <c r="G376" s="93"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G377" s="92"/>
+      <c r="G377" s="93"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G378" s="92"/>
+      <c r="G378" s="93"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G379" s="92"/>
+      <c r="G379" s="93"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G380" s="92"/>
+      <c r="G380" s="93"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G381" s="92"/>
+      <c r="G381" s="93"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G382" s="92"/>
+      <c r="G382" s="93"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G383" s="92"/>
+      <c r="G383" s="93"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G384" s="92"/>
+      <c r="G384" s="93"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G385" s="92"/>
+      <c r="G385" s="93"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G386" s="92"/>
+      <c r="G386" s="93"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G387" s="92"/>
+      <c r="G387" s="93"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G388" s="92"/>
+      <c r="G388" s="93"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G389" s="92"/>
+      <c r="G389" s="93"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G390" s="92"/>
+      <c r="G390" s="93"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G391" s="92"/>
+      <c r="G391" s="93"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G392" s="92"/>
+      <c r="G392" s="93"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G393" s="92"/>
+      <c r="G393" s="93"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G394" s="92"/>
+      <c r="G394" s="93"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G395" s="92"/>
+      <c r="G395" s="93"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G396" s="92"/>
+      <c r="G396" s="93"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G397" s="92"/>
+      <c r="G397" s="93"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G398" s="92"/>
+      <c r="G398" s="93"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G399" s="92"/>
+      <c r="G399" s="93"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G400" s="92"/>
+      <c r="G400" s="93"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G401" s="92"/>
+      <c r="G401" s="93"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G402" s="92"/>
+      <c r="G402" s="93"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G403" s="92"/>
+      <c r="G403" s="93"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G404" s="92"/>
+      <c r="G404" s="93"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G405" s="92"/>
+      <c r="G405" s="93"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G406" s="92"/>
+      <c r="G406" s="93"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G407" s="92"/>
+      <c r="G407" s="93"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G408" s="92"/>
+      <c r="G408" s="93"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G409" s="92"/>
+      <c r="G409" s="93"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G410" s="92"/>
+      <c r="G410" s="93"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G411" s="92"/>
+      <c r="G411" s="93"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G412" s="92"/>
+      <c r="G412" s="93"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G413" s="92"/>
+      <c r="G413" s="93"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G414" s="92"/>
+      <c r="G414" s="93"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G415" s="92"/>
+      <c r="G415" s="93"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G416" s="92"/>
+      <c r="G416" s="93"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G417" s="92"/>
+      <c r="G417" s="93"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G418" s="92"/>
+      <c r="G418" s="93"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G419" s="92"/>
+      <c r="G419" s="93"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G420" s="92"/>
+      <c r="G420" s="93"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G421" s="92"/>
+      <c r="G421" s="93"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G422" s="92"/>
+      <c r="G422" s="93"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G423" s="92"/>
+      <c r="G423" s="93"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G424" s="92"/>
+      <c r="G424" s="93"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G425" s="92"/>
+      <c r="G425" s="93"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G426" s="92"/>
+      <c r="G426" s="93"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G427" s="92"/>
+      <c r="G427" s="93"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G428" s="92"/>
+      <c r="G428" s="93"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G429" s="92"/>
+      <c r="G429" s="93"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G430" s="92"/>
+      <c r="G430" s="93"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G431" s="92"/>
+      <c r="G431" s="93"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G432" s="92"/>
+      <c r="G432" s="93"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G433" s="92"/>
+      <c r="G433" s="93"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G434" s="92"/>
+      <c r="G434" s="93"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G435" s="92"/>
+      <c r="G435" s="93"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G436" s="92"/>
+      <c r="G436" s="93"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G437" s="92"/>
+      <c r="G437" s="93"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G438" s="92"/>
+      <c r="G438" s="93"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G439" s="92"/>
+      <c r="G439" s="93"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G440" s="92"/>
+      <c r="G440" s="93"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G441" s="92"/>
+      <c r="G441" s="93"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G442" s="92"/>
+      <c r="G442" s="93"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G443" s="92"/>
+      <c r="G443" s="93"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G444" s="92"/>
+      <c r="G444" s="93"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G445" s="92"/>
+      <c r="G445" s="93"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G446" s="92"/>
+      <c r="G446" s="93"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G447" s="92"/>
+      <c r="G447" s="93"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G448" s="92"/>
+      <c r="G448" s="93"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G449" s="92"/>
+      <c r="G449" s="93"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G450" s="92"/>
+      <c r="G450" s="93"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G451" s="92"/>
+      <c r="G451" s="93"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G452" s="92"/>
+      <c r="G452" s="93"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G453" s="92"/>
+      <c r="G453" s="93"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G454" s="92"/>
+      <c r="G454" s="93"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G455" s="92"/>
+      <c r="G455" s="93"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G456" s="92"/>
+      <c r="G456" s="93"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G457" s="92"/>
+      <c r="G457" s="93"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G458" s="92"/>
+      <c r="G458" s="93"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G459" s="92"/>
+      <c r="G459" s="93"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G460" s="92"/>
+      <c r="G460" s="93"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G461" s="92"/>
+      <c r="G461" s="93"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G462" s="92"/>
+      <c r="G462" s="93"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G463" s="92"/>
+      <c r="G463" s="93"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G464" s="92"/>
+      <c r="G464" s="93"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G465" s="92"/>
+      <c r="G465" s="93"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G466" s="92"/>
+      <c r="G466" s="93"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G467" s="92"/>
+      <c r="G467" s="93"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G468" s="92"/>
+      <c r="G468" s="93"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G469" s="92"/>
+      <c r="G469" s="93"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G470" s="92"/>
+      <c r="G470" s="93"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G471" s="92"/>
+      <c r="G471" s="93"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G472" s="92"/>
+      <c r="G472" s="93"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G473" s="92"/>
+      <c r="G473" s="93"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G474" s="92"/>
+      <c r="G474" s="93"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G475" s="92"/>
+      <c r="G475" s="93"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G476" s="92"/>
+      <c r="G476" s="93"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G477" s="92"/>
+      <c r="G477" s="93"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G478" s="92"/>
+      <c r="G478" s="93"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G479" s="92"/>
+      <c r="G479" s="93"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G480" s="92"/>
+      <c r="G480" s="93"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G481" s="92"/>
+      <c r="G481" s="93"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G482" s="92"/>
+      <c r="G482" s="93"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G483" s="92"/>
+      <c r="G483" s="93"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G484" s="92"/>
+      <c r="G484" s="93"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G485" s="92"/>
+      <c r="G485" s="93"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G486" s="92"/>
+      <c r="G486" s="93"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G487" s="92"/>
+      <c r="G487" s="93"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G488" s="92"/>
+      <c r="G488" s="93"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G489" s="92"/>
+      <c r="G489" s="93"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G490" s="92"/>
+      <c r="G490" s="93"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G491" s="92"/>
+      <c r="G491" s="93"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G492" s="92"/>
+      <c r="G492" s="93"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G493" s="92"/>
+      <c r="G493" s="93"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G494" s="92"/>
+      <c r="G494" s="93"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G495" s="92"/>
+      <c r="G495" s="93"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G496" s="92"/>
+      <c r="G496" s="93"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G497" s="92"/>
+      <c r="G497" s="93"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G498" s="92"/>
+      <c r="G498" s="93"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G499" s="92"/>
+      <c r="G499" s="93"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G500" s="92"/>
+      <c r="G500" s="93"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G501" s="92"/>
+      <c r="G501" s="93"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G502" s="92"/>
+      <c r="G502" s="93"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G503" s="92"/>
+      <c r="G503" s="93"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G504" s="92"/>
+      <c r="G504" s="93"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G505" s="92"/>
+      <c r="G505" s="93"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G506" s="92"/>
+      <c r="G506" s="93"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G507" s="92"/>
+      <c r="G507" s="93"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G508" s="92"/>
+      <c r="G508" s="93"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G509" s="92"/>
+      <c r="G509" s="93"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G510" s="92"/>
+      <c r="G510" s="93"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G511" s="92"/>
+      <c r="G511" s="93"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G512" s="92"/>
+      <c r="G512" s="93"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G513" s="92"/>
+      <c r="G513" s="93"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G514" s="92"/>
+      <c r="G514" s="93"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G515" s="92"/>
+      <c r="G515" s="93"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G516" s="92"/>
+      <c r="G516" s="93"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G517" s="92"/>
+      <c r="G517" s="93"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G518" s="92"/>
+      <c r="G518" s="93"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G519" s="92"/>
+      <c r="G519" s="93"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G520" s="92"/>
+      <c r="G520" s="93"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G521" s="92"/>
+      <c r="G521" s="93"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G522" s="92"/>
+      <c r="G522" s="93"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G523" s="92"/>
+      <c r="G523" s="93"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G524" s="92"/>
+      <c r="G524" s="93"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G525" s="92"/>
+      <c r="G525" s="93"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G526" s="92"/>
+      <c r="G526" s="93"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G527" s="92"/>
+      <c r="G527" s="93"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G528" s="92"/>
+      <c r="G528" s="93"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G529" s="92"/>
+      <c r="G529" s="93"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G530" s="92"/>
+      <c r="G530" s="93"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G531" s="92"/>
+      <c r="G531" s="93"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G532" s="92"/>
+      <c r="G532" s="93"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G533" s="92"/>
+      <c r="G533" s="93"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G534" s="92"/>
+      <c r="G534" s="93"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G535" s="92"/>
+      <c r="G535" s="93"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G536" s="92"/>
+      <c r="G536" s="93"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G537" s="92"/>
+      <c r="G537" s="93"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G538" s="92"/>
+      <c r="G538" s="93"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G539" s="92"/>
+      <c r="G539" s="93"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G540" s="92"/>
+      <c r="G540" s="93"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G541" s="92"/>
+      <c r="G541" s="93"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G542" s="92"/>
+      <c r="G542" s="93"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G543" s="92"/>
+      <c r="G543" s="93"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G544" s="92"/>
+      <c r="G544" s="93"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G545" s="92"/>
+      <c r="G545" s="93"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G546" s="92"/>
+      <c r="G546" s="93"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G547" s="92"/>
+      <c r="G547" s="93"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G548" s="92"/>
+      <c r="G548" s="93"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G549" s="92"/>
+      <c r="G549" s="93"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G550" s="92"/>
+      <c r="G550" s="93"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G551" s="92"/>
+      <c r="G551" s="93"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G552" s="92"/>
+      <c r="G552" s="93"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G553" s="92"/>
+      <c r="G553" s="93"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G554" s="92"/>
+      <c r="G554" s="93"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G555" s="92"/>
+      <c r="G555" s="93"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G556" s="92"/>
+      <c r="G556" s="93"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G557" s="92"/>
+      <c r="G557" s="93"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G558" s="92"/>
+      <c r="G558" s="93"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G559" s="92"/>
+      <c r="G559" s="93"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G560" s="92"/>
+      <c r="G560" s="93"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G561" s="92"/>
+      <c r="G561" s="93"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G562" s="92"/>
+      <c r="G562" s="93"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G563" s="92"/>
+      <c r="G563" s="93"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G564" s="92"/>
+      <c r="G564" s="93"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G565" s="92"/>
+      <c r="G565" s="93"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G566" s="92"/>
+      <c r="G566" s="93"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G567" s="92"/>
+      <c r="G567" s="93"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G568" s="92"/>
+      <c r="G568" s="93"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G569" s="92"/>
+      <c r="G569" s="93"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G570" s="92"/>
+      <c r="G570" s="93"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G571" s="92"/>
+      <c r="G571" s="93"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G572" s="92"/>
+      <c r="G572" s="93"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G573" s="92"/>
+      <c r="G573" s="93"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G574" s="92"/>
+      <c r="G574" s="93"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G575" s="92"/>
+      <c r="G575" s="93"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G576" s="92"/>
+      <c r="G576" s="93"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G577" s="92"/>
+      <c r="G577" s="93"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G578" s="92"/>
+      <c r="G578" s="93"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G579" s="92"/>
+      <c r="G579" s="93"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G580" s="92"/>
+      <c r="G580" s="93"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G581" s="92"/>
+      <c r="G581" s="93"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G582" s="92"/>
+      <c r="G582" s="93"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G583" s="92"/>
+      <c r="G583" s="93"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G584" s="92"/>
+      <c r="G584" s="93"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G585" s="92"/>
+      <c r="G585" s="93"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G586" s="92"/>
+      <c r="G586" s="93"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G587" s="92"/>
+      <c r="G587" s="93"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G588" s="92"/>
+      <c r="G588" s="93"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G589" s="92"/>
+      <c r="G589" s="93"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G590" s="92"/>
+      <c r="G590" s="93"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G591" s="92"/>
+      <c r="G591" s="93"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G592" s="92"/>
+      <c r="G592" s="93"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G593" s="92"/>
+      <c r="G593" s="93"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G594" s="92"/>
+      <c r="G594" s="93"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G595" s="92"/>
+      <c r="G595" s="93"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G596" s="92"/>
+      <c r="G596" s="93"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G597" s="92"/>
+      <c r="G597" s="93"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G598" s="92"/>
+      <c r="G598" s="93"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G599" s="92"/>
+      <c r="G599" s="93"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G600" s="92"/>
+      <c r="G600" s="93"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G601" s="92"/>
+      <c r="G601" s="93"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G602" s="92"/>
+      <c r="G602" s="93"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G603" s="92"/>
+      <c r="G603" s="93"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G604" s="92"/>
+      <c r="G604" s="93"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G605" s="92"/>
+      <c r="G605" s="93"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G606" s="92"/>
+      <c r="G606" s="93"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G607" s="92"/>
+      <c r="G607" s="93"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G608" s="92"/>
+      <c r="G608" s="93"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G609" s="92"/>
+      <c r="G609" s="93"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G610" s="92"/>
+      <c r="G610" s="93"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G611" s="92"/>
+      <c r="G611" s="93"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G612" s="92"/>
+      <c r="G612" s="93"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G613" s="92"/>
+      <c r="G613" s="93"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G614" s="92"/>
+      <c r="G614" s="93"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G615" s="92"/>
+      <c r="G615" s="93"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G616" s="92"/>
+      <c r="G616" s="93"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G617" s="92"/>
+      <c r="G617" s="93"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G618" s="92"/>
+      <c r="G618" s="93"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G619" s="92"/>
+      <c r="G619" s="93"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G620" s="92"/>
+      <c r="G620" s="93"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G621" s="92"/>
+      <c r="G621" s="93"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G622" s="92"/>
+      <c r="G622" s="93"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G623" s="92"/>
+      <c r="G623" s="93"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G624" s="92"/>
+      <c r="G624" s="93"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G625" s="92"/>
+      <c r="G625" s="93"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G626" s="92"/>
+      <c r="G626" s="93"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G627" s="92"/>
+      <c r="G627" s="93"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G628" s="92"/>
+      <c r="G628" s="93"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G629" s="92"/>
+      <c r="G629" s="93"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G630" s="92"/>
+      <c r="G630" s="93"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G631" s="92"/>
+      <c r="G631" s="93"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G632" s="92"/>
+      <c r="G632" s="93"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G633" s="92"/>
+      <c r="G633" s="93"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G634" s="92"/>
+      <c r="G634" s="93"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G635" s="92"/>
+      <c r="G635" s="93"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G636" s="92"/>
+      <c r="G636" s="93"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G637" s="92"/>
+      <c r="G637" s="93"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G638" s="92"/>
+      <c r="G638" s="93"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G639" s="92"/>
+      <c r="G639" s="93"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G640" s="92"/>
+      <c r="G640" s="93"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G641" s="92"/>
+      <c r="G641" s="93"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G642" s="92"/>
+      <c r="G642" s="93"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G643" s="92"/>
+      <c r="G643" s="93"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G644" s="92"/>
+      <c r="G644" s="93"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G645" s="92"/>
+      <c r="G645" s="93"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G646" s="92"/>
+      <c r="G646" s="93"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G647" s="92"/>
+      <c r="G647" s="93"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G648" s="92"/>
+      <c r="G648" s="93"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G649" s="92"/>
+      <c r="G649" s="93"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G650" s="92"/>
+      <c r="G650" s="93"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G651" s="92"/>
+      <c r="G651" s="93"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G652" s="92"/>
+      <c r="G652" s="93"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G653" s="92"/>
+      <c r="G653" s="93"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G654" s="92"/>
+      <c r="G654" s="93"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G655" s="92"/>
+      <c r="G655" s="93"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G656" s="92"/>
+      <c r="G656" s="93"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G657" s="92"/>
+      <c r="G657" s="93"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G658" s="92"/>
+      <c r="G658" s="93"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G659" s="92"/>
+      <c r="G659" s="93"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G660" s="92"/>
+      <c r="G660" s="93"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G661" s="92"/>
+      <c r="G661" s="93"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G662" s="92"/>
+      <c r="G662" s="93"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G663" s="92"/>
+      <c r="G663" s="93"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G664" s="92"/>
+      <c r="G664" s="93"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G665" s="92"/>
+      <c r="G665" s="93"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G666" s="92"/>
+      <c r="G666" s="93"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G667" s="92"/>
+      <c r="G667" s="93"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G668" s="92"/>
+      <c r="G668" s="93"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G669" s="92"/>
+      <c r="G669" s="93"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G670" s="92"/>
+      <c r="G670" s="93"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G671" s="92"/>
+      <c r="G671" s="93"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G672" s="92"/>
+      <c r="G672" s="93"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G673" s="92"/>
+      <c r="G673" s="93"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G674" s="92"/>
+      <c r="G674" s="93"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G675" s="92"/>
+      <c r="G675" s="93"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G676" s="92"/>
+      <c r="G676" s="93"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G677" s="92"/>
+      <c r="G677" s="93"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G678" s="92"/>
+      <c r="G678" s="93"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G679" s="92"/>
+      <c r="G679" s="93"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G680" s="92"/>
+      <c r="G680" s="93"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G681" s="92"/>
+      <c r="G681" s="93"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G682" s="92"/>
+      <c r="G682" s="93"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G683" s="92"/>
+      <c r="G683" s="93"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G684" s="92"/>
+      <c r="G684" s="93"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G685" s="92"/>
+      <c r="G685" s="93"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G686" s="92"/>
+      <c r="G686" s="93"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G687" s="92"/>
+      <c r="G687" s="93"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G688" s="92"/>
+      <c r="G688" s="93"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G689" s="92"/>
+      <c r="G689" s="93"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G690" s="92"/>
+      <c r="G690" s="93"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G691" s="92"/>
+      <c r="G691" s="93"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G692" s="92"/>
+      <c r="G692" s="93"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G693" s="92"/>
+      <c r="G693" s="93"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G694" s="92"/>
+      <c r="G694" s="93"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G695" s="92"/>
+      <c r="G695" s="93"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G696" s="92"/>
+      <c r="G696" s="93"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G697" s="92"/>
+      <c r="G697" s="93"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G698" s="92"/>
+      <c r="G698" s="93"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G699" s="92"/>
+      <c r="G699" s="93"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G700" s="92"/>
+      <c r="G700" s="93"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G701" s="92"/>
+      <c r="G701" s="93"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G702" s="92"/>
+      <c r="G702" s="93"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G703" s="92"/>
+      <c r="G703" s="93"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G704" s="92"/>
+      <c r="G704" s="93"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G705" s="92"/>
+      <c r="G705" s="93"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G706" s="92"/>
+      <c r="G706" s="93"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G707" s="92"/>
+      <c r="G707" s="93"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G708" s="92"/>
+      <c r="G708" s="93"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G709" s="92"/>
+      <c r="G709" s="93"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G710" s="92"/>
+      <c r="G710" s="93"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G711" s="92"/>
+      <c r="G711" s="93"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G712" s="92"/>
+      <c r="G712" s="93"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G713" s="92"/>
+      <c r="G713" s="93"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G714" s="92"/>
+      <c r="G714" s="93"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G715" s="92"/>
+      <c r="G715" s="93"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G716" s="92"/>
+      <c r="G716" s="93"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G717" s="92"/>
+      <c r="G717" s="93"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G718" s="92"/>
+      <c r="G718" s="93"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G719" s="92"/>
+      <c r="G719" s="93"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G720" s="92"/>
+      <c r="G720" s="93"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G721" s="92"/>
+      <c r="G721" s="93"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G722" s="92"/>
+      <c r="G722" s="93"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G723" s="92"/>
+      <c r="G723" s="93"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G724" s="92"/>
+      <c r="G724" s="93"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G725" s="92"/>
+      <c r="G725" s="93"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G726" s="92"/>
+      <c r="G726" s="93"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G727" s="92"/>
+      <c r="G727" s="93"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G728" s="92"/>
+      <c r="G728" s="93"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G729" s="92"/>
+      <c r="G729" s="93"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G730" s="92"/>
+      <c r="G730" s="93"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G731" s="92"/>
+      <c r="G731" s="93"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G732" s="92"/>
+      <c r="G732" s="93"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G733" s="92"/>
+      <c r="G733" s="93"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G734" s="92"/>
+      <c r="G734" s="93"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G735" s="92"/>
+      <c r="G735" s="93"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G736" s="92"/>
+      <c r="G736" s="93"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G737" s="92"/>
+      <c r="G737" s="93"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G738" s="92"/>
+      <c r="G738" s="93"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G739" s="92"/>
+      <c r="G739" s="93"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G740" s="92"/>
+      <c r="G740" s="93"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G741" s="92"/>
+      <c r="G741" s="93"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G742" s="92"/>
+      <c r="G742" s="93"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G743" s="92"/>
+      <c r="G743" s="93"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G744" s="92"/>
+      <c r="G744" s="93"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G745" s="92"/>
+      <c r="G745" s="93"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G746" s="92"/>
+      <c r="G746" s="93"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G747" s="92"/>
+      <c r="G747" s="93"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G748" s="92"/>
+      <c r="G748" s="93"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G749" s="92"/>
+      <c r="G749" s="93"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G750" s="92"/>
+      <c r="G750" s="93"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G751" s="92"/>
+      <c r="G751" s="93"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G752" s="92"/>
+      <c r="G752" s="93"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G753" s="92"/>
+      <c r="G753" s="93"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G754" s="92"/>
+      <c r="G754" s="93"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G755" s="92"/>
+      <c r="G755" s="93"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G756" s="92"/>
+      <c r="G756" s="93"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G757" s="92"/>
+      <c r="G757" s="93"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G758" s="92"/>
+      <c r="G758" s="93"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G759" s="92"/>
+      <c r="G759" s="93"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G760" s="92"/>
+      <c r="G760" s="93"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G761" s="92"/>
+      <c r="G761" s="93"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G762" s="92"/>
+      <c r="G762" s="93"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G763" s="92"/>
+      <c r="G763" s="93"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G764" s="92"/>
+      <c r="G764" s="93"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G765" s="92"/>
+      <c r="G765" s="93"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G766" s="92"/>
+      <c r="G766" s="93"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G767" s="92"/>
+      <c r="G767" s="93"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G768" s="92"/>
+      <c r="G768" s="93"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G769" s="92"/>
+      <c r="G769" s="93"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G770" s="92"/>
+      <c r="G770" s="93"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G771" s="92"/>
+      <c r="G771" s="93"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G772" s="92"/>
+      <c r="G772" s="93"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G773" s="92"/>
+      <c r="G773" s="93"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G774" s="92"/>
+      <c r="G774" s="93"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G775" s="92"/>
+      <c r="G775" s="93"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G776" s="92"/>
+      <c r="G776" s="93"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G777" s="92"/>
+      <c r="G777" s="93"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G778" s="92"/>
+      <c r="G778" s="93"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G779" s="92"/>
+      <c r="G779" s="93"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G780" s="92"/>
+      <c r="G780" s="93"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G781" s="92"/>
+      <c r="G781" s="93"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G782" s="92"/>
+      <c r="G782" s="93"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G783" s="92"/>
+      <c r="G783" s="93"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G784" s="92"/>
+      <c r="G784" s="93"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G785" s="92"/>
+      <c r="G785" s="93"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G786" s="92"/>
+      <c r="G786" s="93"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G787" s="92"/>
+      <c r="G787" s="93"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G788" s="92"/>
+      <c r="G788" s="93"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G789" s="92"/>
+      <c r="G789" s="93"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G790" s="92"/>
+      <c r="G790" s="93"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G791" s="92"/>
+      <c r="G791" s="93"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G792" s="92"/>
+      <c r="G792" s="93"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G793" s="92"/>
+      <c r="G793" s="93"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G794" s="92"/>
+      <c r="G794" s="93"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G795" s="92"/>
+      <c r="G795" s="93"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G796" s="92"/>
+      <c r="G796" s="93"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G797" s="92"/>
+      <c r="G797" s="93"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G798" s="92"/>
+      <c r="G798" s="93"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G799" s="92"/>
+      <c r="G799" s="93"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G800" s="92"/>
+      <c r="G800" s="93"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G801" s="92"/>
+      <c r="G801" s="93"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G802" s="92"/>
+      <c r="G802" s="93"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G803" s="92"/>
+      <c r="G803" s="93"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G804" s="92"/>
+      <c r="G804" s="93"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G805" s="92"/>
+      <c r="G805" s="93"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G806" s="92"/>
+      <c r="G806" s="93"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G807" s="92"/>
+      <c r="G807" s="93"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G808" s="92"/>
+      <c r="G808" s="93"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G809" s="92"/>
+      <c r="G809" s="93"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G810" s="92"/>
+      <c r="G810" s="93"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G811" s="92"/>
+      <c r="G811" s="93"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G812" s="92"/>
+      <c r="G812" s="93"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G813" s="92"/>
+      <c r="G813" s="93"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G814" s="92"/>
+      <c r="G814" s="93"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G815" s="92"/>
+      <c r="G815" s="93"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G816" s="92"/>
+      <c r="G816" s="93"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G817" s="92"/>
+      <c r="G817" s="93"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G818" s="92"/>
+      <c r="G818" s="93"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G819" s="92"/>
+      <c r="G819" s="93"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G820" s="92"/>
+      <c r="G820" s="93"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G821" s="92"/>
+      <c r="G821" s="93"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G822" s="92"/>
+      <c r="G822" s="93"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G823" s="92"/>
+      <c r="G823" s="93"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G824" s="92"/>
+      <c r="G824" s="93"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G825" s="92"/>
+      <c r="G825" s="93"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G826" s="92"/>
+      <c r="G826" s="93"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G827" s="92"/>
+      <c r="G827" s="93"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G828" s="92"/>
+      <c r="G828" s="93"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G829" s="92"/>
+      <c r="G829" s="93"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G830" s="92"/>
+      <c r="G830" s="93"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G831" s="92"/>
+      <c r="G831" s="93"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G832" s="92"/>
+      <c r="G832" s="93"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G833" s="92"/>
+      <c r="G833" s="93"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G834" s="92"/>
+      <c r="G834" s="93"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G835" s="92"/>
+      <c r="G835" s="93"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G836" s="92"/>
+      <c r="G836" s="93"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G837" s="92"/>
+      <c r="G837" s="93"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G838" s="92"/>
+      <c r="G838" s="93"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G839" s="92"/>
+      <c r="G839" s="93"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G840" s="92"/>
+      <c r="G840" s="93"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G841" s="92"/>
+      <c r="G841" s="93"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G842" s="92"/>
+      <c r="G842" s="93"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G843" s="92"/>
+      <c r="G843" s="93"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G844" s="92"/>
+      <c r="G844" s="93"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G845" s="92"/>
+      <c r="G845" s="93"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G846" s="92"/>
+      <c r="G846" s="93"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G847" s="92"/>
+      <c r="G847" s="93"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G848" s="92"/>
+      <c r="G848" s="93"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G849" s="92"/>
+      <c r="G849" s="93"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G850" s="92"/>
+      <c r="G850" s="93"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G851" s="92"/>
+      <c r="G851" s="93"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G852" s="92"/>
+      <c r="G852" s="93"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G853" s="92"/>
+      <c r="G853" s="93"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G854" s="92"/>
+      <c r="G854" s="93"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G855" s="92"/>
+      <c r="G855" s="93"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G856" s="92"/>
+      <c r="G856" s="93"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G857" s="92"/>
+      <c r="G857" s="93"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G858" s="92"/>
+      <c r="G858" s="93"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G859" s="92"/>
+      <c r="G859" s="93"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G860" s="92"/>
+      <c r="G860" s="93"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G861" s="92"/>
+      <c r="G861" s="93"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G862" s="92"/>
+      <c r="G862" s="93"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G863" s="92"/>
+      <c r="G863" s="93"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G864" s="92"/>
+      <c r="G864" s="93"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G865" s="92"/>
+      <c r="G865" s="93"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G866" s="92"/>
+      <c r="G866" s="93"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G867" s="92"/>
+      <c r="G867" s="93"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G868" s="92"/>
+      <c r="G868" s="93"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G869" s="92"/>
+      <c r="G869" s="93"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G870" s="92"/>
+      <c r="G870" s="93"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G871" s="92"/>
+      <c r="G871" s="93"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G872" s="92"/>
+      <c r="G872" s="93"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G873" s="92"/>
+      <c r="G873" s="93"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G874" s="92"/>
+      <c r="G874" s="93"/>
     </row>
     <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G875" s="92"/>
+      <c r="G875" s="93"/>
     </row>
     <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G876" s="92"/>
+      <c r="G876" s="93"/>
     </row>
     <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G877" s="92"/>
+      <c r="G877" s="93"/>
     </row>
     <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G878" s="92"/>
+      <c r="G878" s="93"/>
     </row>
     <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G879" s="92"/>
+      <c r="G879" s="93"/>
     </row>
     <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G880" s="92"/>
+      <c r="G880" s="93"/>
     </row>
     <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G881" s="92"/>
+      <c r="G881" s="93"/>
     </row>
     <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G882" s="92"/>
+      <c r="G882" s="93"/>
     </row>
     <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G883" s="92"/>
+      <c r="G883" s="93"/>
     </row>
     <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G884" s="92"/>
+      <c r="G884" s="93"/>
     </row>
     <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G885" s="92"/>
+      <c r="G885" s="93"/>
     </row>
     <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G886" s="92"/>
+      <c r="G886" s="93"/>
     </row>
     <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G887" s="92"/>
+      <c r="G887" s="93"/>
     </row>
     <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G888" s="92"/>
+      <c r="G888" s="93"/>
     </row>
     <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G889" s="92"/>
+      <c r="G889" s="93"/>
     </row>
     <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G890" s="92"/>
+      <c r="G890" s="93"/>
     </row>
     <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G891" s="92"/>
+      <c r="G891" s="93"/>
     </row>
     <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G892" s="92"/>
+      <c r="G892" s="93"/>
     </row>
     <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G893" s="92"/>
+      <c r="G893" s="93"/>
     </row>
     <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G894" s="92"/>
+      <c r="G894" s="93"/>
     </row>
     <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G895" s="92"/>
+      <c r="G895" s="93"/>
     </row>
     <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G896" s="92"/>
+      <c r="G896" s="93"/>
     </row>
     <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G897" s="92"/>
+      <c r="G897" s="93"/>
     </row>
     <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G898" s="92"/>
+      <c r="G898" s="93"/>
     </row>
     <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G899" s="92"/>
+      <c r="G899" s="93"/>
     </row>
     <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G900" s="92"/>
+      <c r="G900" s="93"/>
     </row>
     <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G901" s="92"/>
+      <c r="G901" s="93"/>
     </row>
     <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G902" s="92"/>
+      <c r="G902" s="93"/>
     </row>
     <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G903" s="92"/>
+      <c r="G903" s="93"/>
     </row>
     <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G904" s="92"/>
+      <c r="G904" s="93"/>
     </row>
     <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G905" s="92"/>
+      <c r="G905" s="93"/>
     </row>
     <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G906" s="92"/>
+      <c r="G906" s="93"/>
     </row>
     <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G907" s="92"/>
+      <c r="G907" s="93"/>
     </row>
     <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G908" s="92"/>
+      <c r="G908" s="93"/>
     </row>
     <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G909" s="92"/>
+      <c r="G909" s="93"/>
     </row>
     <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G910" s="92"/>
+      <c r="G910" s="93"/>
     </row>
     <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G911" s="92"/>
+      <c r="G911" s="93"/>
     </row>
     <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G912" s="92"/>
+      <c r="G912" s="93"/>
     </row>
     <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G913" s="92"/>
+      <c r="G913" s="93"/>
     </row>
     <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G914" s="92"/>
+      <c r="G914" s="93"/>
     </row>
     <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G915" s="92"/>
+      <c r="G915" s="93"/>
     </row>
     <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G916" s="92"/>
+      <c r="G916" s="93"/>
     </row>
     <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G917" s="92"/>
+      <c r="G917" s="93"/>
     </row>
     <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G918" s="92"/>
+      <c r="G918" s="93"/>
     </row>
     <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G919" s="92"/>
+      <c r="G919" s="93"/>
     </row>
     <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G920" s="92"/>
+      <c r="G920" s="93"/>
     </row>
     <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G921" s="92"/>
+      <c r="G921" s="93"/>
     </row>
     <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G922" s="92"/>
+      <c r="G922" s="93"/>
     </row>
     <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G923" s="92"/>
+      <c r="G923" s="93"/>
     </row>
     <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G924" s="92"/>
+      <c r="G924" s="93"/>
     </row>
     <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G925" s="92"/>
+      <c r="G925" s="93"/>
     </row>
     <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G926" s="92"/>
+      <c r="G926" s="93"/>
     </row>
     <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G927" s="92"/>
+      <c r="G927" s="93"/>
     </row>
     <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G928" s="92"/>
+      <c r="G928" s="93"/>
     </row>
     <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G929" s="92"/>
+      <c r="G929" s="93"/>
     </row>
     <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G930" s="92"/>
+      <c r="G930" s="93"/>
     </row>
     <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G931" s="92"/>
+      <c r="G931" s="93"/>
     </row>
     <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G932" s="92"/>
+      <c r="G932" s="93"/>
     </row>
     <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G933" s="92"/>
+      <c r="G933" s="93"/>
     </row>
     <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G934" s="92"/>
+      <c r="G934" s="93"/>
     </row>
     <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G935" s="92"/>
+      <c r="G935" s="93"/>
     </row>
     <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G936" s="92"/>
+      <c r="G936" s="93"/>
     </row>
     <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G937" s="92"/>
+      <c r="G937" s="93"/>
     </row>
     <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G938" s="92"/>
+      <c r="G938" s="93"/>
     </row>
     <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G939" s="92"/>
+      <c r="G939" s="93"/>
     </row>
     <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G940" s="92"/>
+      <c r="G940" s="93"/>
     </row>
     <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G941" s="92"/>
+      <c r="G941" s="93"/>
     </row>
     <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G942" s="92"/>
+      <c r="G942" s="93"/>
     </row>
     <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G943" s="92"/>
+      <c r="G943" s="93"/>
     </row>
     <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G944" s="92"/>
+      <c r="G944" s="93"/>
     </row>
     <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G945" s="92"/>
+      <c r="G945" s="93"/>
     </row>
     <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G946" s="92"/>
+      <c r="G946" s="93"/>
     </row>
     <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G947" s="92"/>
+      <c r="G947" s="93"/>
     </row>
     <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G948" s="92"/>
+      <c r="G948" s="93"/>
     </row>
     <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G949" s="92"/>
+      <c r="G949" s="93"/>
     </row>
     <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G950" s="92"/>
+      <c r="G950" s="93"/>
     </row>
     <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G951" s="92"/>
+      <c r="G951" s="93"/>
     </row>
     <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G952" s="92"/>
+      <c r="G952" s="93"/>
     </row>
     <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G953" s="92"/>
+      <c r="G953" s="93"/>
     </row>
     <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G954" s="92"/>
+      <c r="G954" s="93"/>
     </row>
     <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G955" s="92"/>
+      <c r="G955" s="93"/>
     </row>
     <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G956" s="92"/>
+      <c r="G956" s="93"/>
     </row>
     <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G957" s="92"/>
+      <c r="G957" s="93"/>
     </row>
     <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G958" s="92"/>
+      <c r="G958" s="93"/>
     </row>
     <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G959" s="92"/>
+      <c r="G959" s="93"/>
     </row>
     <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G960" s="92"/>
+      <c r="G960" s="93"/>
     </row>
     <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G961" s="92"/>
+      <c r="G961" s="93"/>
     </row>
     <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G962" s="92"/>
+      <c r="G962" s="93"/>
     </row>
     <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G963" s="92"/>
+      <c r="G963" s="93"/>
     </row>
     <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G964" s="92"/>
+      <c r="G964" s="93"/>
     </row>
     <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G965" s="92"/>
+      <c r="G965" s="93"/>
     </row>
     <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G966" s="92"/>
+      <c r="G966" s="93"/>
     </row>
     <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G967" s="92"/>
+      <c r="G967" s="93"/>
     </row>
     <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G968" s="92"/>
+      <c r="G968" s="93"/>
     </row>
     <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G969" s="92"/>
+      <c r="G969" s="93"/>
     </row>
     <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G970" s="92"/>
+      <c r="G970" s="93"/>
     </row>
     <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G971" s="92"/>
+      <c r="G971" s="93"/>
     </row>
     <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G972" s="92"/>
+      <c r="G972" s="93"/>
     </row>
     <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G973" s="92"/>
+      <c r="G973" s="93"/>
     </row>
     <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G974" s="92"/>
+      <c r="G974" s="93"/>
     </row>
     <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G975" s="92"/>
+      <c r="G975" s="93"/>
     </row>
     <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G976" s="92"/>
+      <c r="G976" s="93"/>
     </row>
     <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G977" s="92"/>
+      <c r="G977" s="93"/>
     </row>
     <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G978" s="92"/>
+      <c r="G978" s="93"/>
     </row>
     <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G979" s="92"/>
+      <c r="G979" s="93"/>
     </row>
     <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G980" s="92"/>
+      <c r="G980" s="93"/>
     </row>
     <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G981" s="92"/>
+      <c r="G981" s="93"/>
     </row>
     <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G982" s="92"/>
+      <c r="G982" s="93"/>
     </row>
     <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G983" s="92"/>
+      <c r="G983" s="93"/>
     </row>
     <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G984" s="92"/>
+      <c r="G984" s="93"/>
     </row>
     <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G985" s="92"/>
+      <c r="G985" s="93"/>
     </row>
     <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G986" s="92"/>
+      <c r="G986" s="93"/>
     </row>
     <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G987" s="92"/>
+      <c r="G987" s="93"/>
     </row>
     <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G988" s="92"/>
+      <c r="G988" s="93"/>
     </row>
     <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G989" s="92"/>
+      <c r="G989" s="93"/>
     </row>
     <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G990" s="92"/>
+      <c r="G990" s="93"/>
     </row>
     <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G991" s="92"/>
+      <c r="G991" s="93"/>
     </row>
     <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G992" s="92"/>
+      <c r="G992" s="93"/>
     </row>
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G993" s="92"/>
+      <c r="G993" s="93"/>
     </row>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G994" s="92"/>
+      <c r="G994" s="93"/>
     </row>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G995" s="92"/>
+      <c r="G995" s="93"/>
     </row>
     <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G996" s="92"/>
+      <c r="G996" s="93"/>
     </row>
     <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G997" s="92"/>
+      <c r="G997" s="93"/>
     </row>
     <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G998" s="92"/>
+      <c r="G998" s="93"/>
     </row>
     <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G999" s="92"/>
+      <c r="G999" s="93"/>
     </row>
     <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G1000" s="92"/>
+      <c r="G1000" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -35441,7 +36452,7 @@
       <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.71875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
